--- a/data/BOC/FTD/FTDE/ctyseasonal.xlsx
+++ b/data/BOC/FTD/FTDE/ctyseasonal.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ctyseasonal!$A$1:$AY$233</definedName>
-    <definedName name="ctyseasonal">'ctyseasonal'!$A$1:$AY$247</definedName>
+    <definedName name="ctyseasonal">'ctyseasonal'!$A$1:$AY$266</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="true"/>
   <extLst>
@@ -36118,121 +36118,148 @@
         <v>52</v>
       </c>
       <c r="D229">
-        <v>-22566474790.741386</v>
+        <v>-22630395350.314682</v>
       </c>
       <c r="E229">
-        <v>-26257372384.15042</v>
+        <v>-26321292943.723717</v>
       </c>
       <c r="F229">
-        <v>-26621118932.11183</v>
+        <v>-26685039491.685127</v>
       </c>
       <c r="G229">
-        <v>-24721932122.138893</v>
+        <v>-24785852681.71219</v>
       </c>
       <c r="H229">
-        <v>-27426887271.28911</v>
+        <v>-27490807830.862404</v>
       </c>
       <c r="I229">
-        <v>-30761947743.027138</v>
+        <v>-30825868302.600433</v>
       </c>
       <c r="J229">
-        <v>-25622007443.010643</v>
+        <v>-25685928002.58394</v>
       </c>
       <c r="K229">
-        <v>-27494917391.367065</v>
+        <v>-27558837950.94036</v>
       </c>
       <c r="L229">
-        <v>-27580112201.749893</v>
+        <v>-27644032761.32319</v>
       </c>
       <c r="M229">
-        <v>-23964388518.0567</v>
+        <v>-24028309077.629997</v>
+      </c>
+      <c r="N229">
+        <v>-31699796205.877533</v>
+      </c>
+      <c r="O229">
+        <v>-27987390263.74639</v>
       </c>
       <c r="P229">
-        <v>-75444966107.00363</v>
+        <v>-75636727785.72353</v>
       </c>
       <c r="Q229">
-        <v>-82910767136.45514</v>
+        <v>-83102528815.17502</v>
       </c>
       <c r="R229">
-        <v>-80697037036.1276</v>
+        <v>-80888798714.84749</v>
+      </c>
+      <c r="S229">
+        <v>-83715495547.25392</v>
       </c>
       <c r="T229">
-        <v>37977576944.90695</v>
+        <v>38002543144.60749</v>
       </c>
       <c r="U229">
-        <v>37566237452.35862</v>
+        <v>37591203652.05916</v>
       </c>
       <c r="V229">
-        <v>39319289161.44696</v>
+        <v>39344255361.1475</v>
       </c>
       <c r="W229">
-        <v>40192815194.60089</v>
+        <v>40217781394.30143</v>
       </c>
       <c r="X229">
-        <v>40584955284.79704</v>
+        <v>40609921484.49758</v>
       </c>
       <c r="Y229">
-        <v>39087919026.036995</v>
+        <v>39112885225.73753</v>
       </c>
       <c r="Z229">
-        <v>41607388086.01908</v>
+        <v>41632354285.71962</v>
       </c>
       <c r="AA229">
-        <v>43642890746.758865</v>
+        <v>43667856946.459404</v>
       </c>
       <c r="AB229">
-        <v>42329237759.64516</v>
+        <v>42354203959.345695</v>
       </c>
       <c r="AC229">
-        <v>46311441028.89282</v>
+        <v>46336407228.59336</v>
+      </c>
+      <c r="AD229">
+        <v>44999722593.46477</v>
+      </c>
+      <c r="AE229">
+        <v>45650149130.066475</v>
       </c>
       <c r="AF229">
-        <v>114863103558.71252</v>
+        <v>114938002157.81415</v>
       </c>
       <c r="AG229">
-        <v>119865689505.43494</v>
+        <v>119940588104.53654</v>
       </c>
       <c r="AH229">
-        <v>127579516592.42311</v>
+        <v>127654415191.52472</v>
+      </c>
+      <c r="AI229">
+        <v>136986278952.1246</v>
       </c>
       <c r="AJ229">
-        <v>60544051735.64834</v>
+        <v>60632938494.92217</v>
       </c>
       <c r="AK229">
-        <v>63823609836.50904</v>
+        <v>63912496595.782875</v>
       </c>
       <c r="AL229">
-        <v>65940408093.55879</v>
+        <v>66029294852.83263</v>
       </c>
       <c r="AM229">
-        <v>64914747316.739784</v>
+        <v>65003634076.01362</v>
       </c>
       <c r="AN229">
-        <v>68011842556.08615</v>
+        <v>68100729315.359985</v>
       </c>
       <c r="AO229">
-        <v>69849866769.06413</v>
+        <v>69938753528.33797</v>
       </c>
       <c r="AP229">
-        <v>67229395529.029724</v>
+        <v>67318282288.30356</v>
       </c>
       <c r="AQ229">
-        <v>71137808138.12593</v>
+        <v>71226694897.39977</v>
       </c>
       <c r="AR229">
-        <v>69909349961.39505</v>
+        <v>69998236720.66888</v>
       </c>
       <c r="AS229">
-        <v>70275829546.94952</v>
+        <v>70364716306.22336</v>
+      </c>
+      <c r="AT229">
+        <v>76699518799.3423</v>
+      </c>
+      <c r="AU229">
+        <v>73637539393.81287</v>
       </c>
       <c r="AV229">
-        <v>190308069665.7162</v>
+        <v>190574729943.53766</v>
       </c>
       <c r="AW229">
-        <v>202776456641.89008</v>
+        <v>203043116919.71155</v>
       </c>
       <c r="AX229">
-        <v>208276553628.5507</v>
+        <v>208543213906.3722</v>
+      </c>
+      <c r="AY229">
+        <v>220701774499.37854</v>
       </c>
     </row>
     <row r="230" spans="1:51" x14ac:dyDescent="0.25">
@@ -36246,121 +36273,148 @@
         <v>54</v>
       </c>
       <c r="D230">
-        <v>1394812104.3569236</v>
+        <v>1398210215.152981</v>
       </c>
       <c r="E230">
-        <v>1317896872.3667293</v>
+        <v>1321294983.1627867</v>
       </c>
       <c r="F230">
-        <v>1028387689.535804</v>
+        <v>1031785800.3318615</v>
       </c>
       <c r="G230">
-        <v>1094866542.4163303</v>
+        <v>1098264653.212388</v>
       </c>
       <c r="H230">
-        <v>1160739151.8078513</v>
+        <v>1164137262.603909</v>
       </c>
       <c r="I230">
-        <v>1506477573.0586429</v>
+        <v>1509875683.8547006</v>
       </c>
       <c r="J230">
-        <v>1389622931.7995148</v>
+        <v>1393021042.5955725</v>
       </c>
       <c r="K230">
-        <v>2059888613.5534701</v>
+        <v>2063286724.3495274</v>
       </c>
       <c r="L230">
-        <v>1152461629.0448585</v>
+        <v>1155859739.8409157</v>
       </c>
       <c r="M230">
-        <v>1263643591.2220178</v>
+        <v>1267041702.0180755</v>
+      </c>
+      <c r="N230">
+        <v>1031431024.3827839</v>
+      </c>
+      <c r="O230">
+        <v>1162931697.4945054</v>
       </c>
       <c r="P230">
-        <v>3741096666.2594566</v>
+        <v>3751290998.6476293</v>
       </c>
       <c r="Q230">
-        <v>3762083267.2828245</v>
+        <v>3772277599.6709976</v>
       </c>
       <c r="R230">
-        <v>4601973174.397843</v>
+        <v>4612167506.7860155</v>
+      </c>
+      <c r="S230">
+        <v>3461404423.8953648</v>
       </c>
       <c r="T230">
-        <v>3183397037.7650647</v>
+        <v>3197466513.8562183</v>
       </c>
       <c r="U230">
-        <v>3324405402.1886406</v>
+        <v>3338474878.279794</v>
       </c>
       <c r="V230">
-        <v>3173173812.167258</v>
+        <v>3187243288.2584114</v>
       </c>
       <c r="W230">
-        <v>3566383206.4110284</v>
+        <v>3580452682.502182</v>
       </c>
       <c r="X230">
-        <v>3684677221.697079</v>
+        <v>3698746697.788233</v>
       </c>
       <c r="Y230">
-        <v>4204454336.8161917</v>
+        <v>4218523812.9073453</v>
       </c>
       <c r="Z230">
-        <v>4257649938.0304685</v>
+        <v>4271719414.121622</v>
       </c>
       <c r="AA230">
-        <v>4607264307.365885</v>
+        <v>4621333783.457038</v>
       </c>
       <c r="AB230">
-        <v>4376194137.493183</v>
+        <v>4390263613.584336</v>
       </c>
       <c r="AC230">
-        <v>4261005006.3541284</v>
+        <v>4275074482.445282</v>
+      </c>
+      <c r="AD230">
+        <v>4004832860.4069233</v>
+      </c>
+      <c r="AE230">
+        <v>4097920199.3926177</v>
       </c>
       <c r="AF230">
-        <v>9680976252.120962</v>
+        <v>9723184680.394424</v>
       </c>
       <c r="AG230">
-        <v>11455514764.9243</v>
+        <v>11497723193.19776</v>
       </c>
       <c r="AH230">
-        <v>13241108382.889536</v>
+        <v>13283316811.162994</v>
+      </c>
+      <c r="AI230">
+        <v>12377827542.244823</v>
       </c>
       <c r="AJ230">
-        <v>1788584933.4081411</v>
+        <v>1799256298.7032373</v>
       </c>
       <c r="AK230">
-        <v>2006508529.8219113</v>
+        <v>2017179895.1170075</v>
       </c>
       <c r="AL230">
-        <v>2144786122.6314538</v>
+        <v>2155457487.92655</v>
       </c>
       <c r="AM230">
-        <v>2471516663.994698</v>
+        <v>2482188029.289794</v>
       </c>
       <c r="AN230">
-        <v>2523938069.889228</v>
+        <v>2534609435.184324</v>
       </c>
       <c r="AO230">
-        <v>2697976763.757549</v>
+        <v>2708648129.0526447</v>
       </c>
       <c r="AP230">
-        <v>2868027006.2309537</v>
+        <v>2878698371.5260496</v>
       </c>
       <c r="AQ230">
-        <v>2547375693.8124146</v>
+        <v>2558047059.1075106</v>
       </c>
       <c r="AR230">
-        <v>3223732508.4483247</v>
+        <v>3234403873.7434206</v>
       </c>
       <c r="AS230">
-        <v>2997361415.1321106</v>
+        <v>3008032780.4272065</v>
+      </c>
+      <c r="AT230">
+        <v>2973401836.0241394</v>
+      </c>
+      <c r="AU230">
+        <v>2934988501.8981123</v>
       </c>
       <c r="AV230">
-        <v>5939879585.861506</v>
+        <v>5971893681.746795</v>
       </c>
       <c r="AW230">
-        <v>7693431497.641476</v>
+        <v>7725445593.526762</v>
       </c>
       <c r="AX230">
-        <v>8639135208.491693</v>
+        <v>8671149304.37698</v>
+      </c>
+      <c r="AY230">
+        <v>8916423118.349457</v>
       </c>
     </row>
     <row r="231" spans="1:51" x14ac:dyDescent="0.25">
@@ -36374,121 +36428,148 @@
         <v>56</v>
       </c>
       <c r="D231">
-        <v>650735827.5999889</v>
+        <v>643297268.6345615</v>
       </c>
       <c r="E231">
-        <v>489229660.236506</v>
+        <v>481791101.2710786</v>
       </c>
       <c r="F231">
-        <v>611151540.3215113</v>
+        <v>603712981.3560839</v>
       </c>
       <c r="G231">
-        <v>741220393.7974157</v>
+        <v>733781834.8319883</v>
       </c>
       <c r="H231">
-        <v>626482081.6105857</v>
+        <v>619043522.6451583</v>
       </c>
       <c r="I231">
-        <v>874188382.9569583</v>
+        <v>866749823.9915309</v>
       </c>
       <c r="J231">
-        <v>727234757.0595927</v>
+        <v>719796198.0941653</v>
       </c>
       <c r="K231">
-        <v>818036262.2758961</v>
+        <v>810597703.3104687</v>
       </c>
       <c r="L231">
-        <v>505764896.3315139</v>
+        <v>498326337.3660865</v>
       </c>
       <c r="M231">
-        <v>818110166.0729012</v>
+        <v>810671607.1074739</v>
+      </c>
+      <c r="N231">
+        <v>768571328.9522943</v>
+      </c>
+      <c r="O231">
+        <v>1003240641.4391065</v>
       </c>
       <c r="P231">
-        <v>1751117028.1580062</v>
+        <v>1728801351.261724</v>
       </c>
       <c r="Q231">
-        <v>2241890858.3649597</v>
+        <v>2219575181.4686775</v>
       </c>
       <c r="R231">
-        <v>2051035915.6670027</v>
+        <v>2028720238.7707205</v>
+      </c>
+      <c r="S231">
+        <v>2582483577.4988747</v>
       </c>
       <c r="T231">
-        <v>2943710136.667071</v>
+        <v>2943312210.9569077</v>
       </c>
       <c r="U231">
-        <v>2727770231.1715755</v>
+        <v>2727372305.4614124</v>
       </c>
       <c r="V231">
-        <v>3097475980.690351</v>
+        <v>3097078054.980188</v>
       </c>
       <c r="W231">
-        <v>3056462108.126449</v>
+        <v>3056064182.416286</v>
       </c>
       <c r="X231">
-        <v>3210362424.398446</v>
+        <v>3209964498.688283</v>
       </c>
       <c r="Y231">
-        <v>3361074773.8542295</v>
+        <v>3360676848.1440663</v>
       </c>
       <c r="Z231">
-        <v>3227211468.5616918</v>
+        <v>3226813542.8515286</v>
       </c>
       <c r="AA231">
-        <v>3357565644.9783673</v>
+        <v>3357167719.268204</v>
       </c>
       <c r="AB231">
-        <v>3062620896.9123006</v>
+        <v>3062222971.2021375</v>
       </c>
       <c r="AC231">
-        <v>3414086629.371048</v>
+        <v>3413688703.660885</v>
+      </c>
+      <c r="AD231">
+        <v>3384393094.0546985</v>
+      </c>
+      <c r="AE231">
+        <v>3656993907.315401</v>
       </c>
       <c r="AF231">
-        <v>8768956348.528997</v>
+        <v>8767762571.398508</v>
       </c>
       <c r="AG231">
-        <v>9627899306.379124</v>
+        <v>9626705529.248634</v>
       </c>
       <c r="AH231">
-        <v>9647398010.45236</v>
+        <v>9646204233.32187</v>
+      </c>
+      <c r="AI231">
+        <v>10455075705.030985</v>
       </c>
       <c r="AJ231">
-        <v>2292974309.067082</v>
+        <v>2300014942.322346</v>
       </c>
       <c r="AK231">
-        <v>2238540570.9350696</v>
+        <v>2245581204.190334</v>
       </c>
       <c r="AL231">
-        <v>2486324440.3688397</v>
+        <v>2493365073.624104</v>
       </c>
       <c r="AM231">
-        <v>2315241714.3290334</v>
+        <v>2322282347.5842977</v>
       </c>
       <c r="AN231">
-        <v>2583880342.7878604</v>
+        <v>2590920976.0431247</v>
       </c>
       <c r="AO231">
-        <v>2486886390.897271</v>
+        <v>2493927024.1525354</v>
       </c>
       <c r="AP231">
-        <v>2499976711.502099</v>
+        <v>2507017344.7573633</v>
       </c>
       <c r="AQ231">
-        <v>2539529382.7024713</v>
+        <v>2546570015.9577355</v>
       </c>
       <c r="AR231">
-        <v>2556856000.5807867</v>
+        <v>2563896633.836051</v>
       </c>
       <c r="AS231">
-        <v>2595976463.2981467</v>
+        <v>2603017096.553411</v>
+      </c>
+      <c r="AT231">
+        <v>2615821765.102404</v>
+      </c>
+      <c r="AU231">
+        <v>2653753265.8762946</v>
       </c>
       <c r="AV231">
-        <v>7017839320.370991</v>
+        <v>7038961220.136784</v>
       </c>
       <c r="AW231">
-        <v>7386008448.014165</v>
+        <v>7407130347.779958</v>
       </c>
       <c r="AX231">
-        <v>7596362094.785357</v>
+        <v>7617483994.55115</v>
+      </c>
+      <c r="AY231">
+        <v>7872592127.53211</v>
       </c>
     </row>
     <row r="232" spans="1:51" x14ac:dyDescent="0.25">
@@ -36502,121 +36583,148 @@
         <v>58</v>
       </c>
       <c r="D232">
-        <v>-2167531409.2160454</v>
+        <v>-2237262029.3164406</v>
       </c>
       <c r="E232">
-        <v>-3817907560.121334</v>
+        <v>-3887638180.2217293</v>
       </c>
       <c r="F232">
-        <v>-3568043049.2968674</v>
+        <v>-3637773669.3972626</v>
       </c>
       <c r="G232">
-        <v>-3029092809.1488533</v>
+        <v>-3098823429.2492485</v>
       </c>
       <c r="H232">
-        <v>-4761048394.883503</v>
+        <v>-4830779014.983898</v>
       </c>
       <c r="I232">
-        <v>-5492635172.43755</v>
+        <v>-5562365792.537945</v>
       </c>
       <c r="J232">
-        <v>-3636621190.0943527</v>
+        <v>-3706351810.194748</v>
       </c>
       <c r="K232">
-        <v>-5040376622.726917</v>
+        <v>-5110107242.827312</v>
       </c>
       <c r="L232">
-        <v>-4647549895.5077095</v>
+        <v>-4717280515.608105</v>
       </c>
       <c r="M232">
-        <v>-3254955386.6847725</v>
+        <v>-3159257696.2938156</v>
+      </c>
+      <c r="N232">
+        <v>-5410371733.002407</v>
+      </c>
+      <c r="O232">
+        <v>-4190973084.3670464</v>
       </c>
       <c r="P232">
-        <v>-9553482018.634247</v>
+        <v>-9762673878.935432</v>
       </c>
       <c r="Q232">
-        <v>-13282776376.469906</v>
+        <v>-13491968236.771091</v>
       </c>
       <c r="R232">
-        <v>-13324547708.32898</v>
+        <v>-13533739568.630165</v>
+      </c>
+      <c r="S232">
+        <v>-12760602513.663269</v>
       </c>
       <c r="T232">
-        <v>24118238479.12098</v>
+        <v>24089410709.856785</v>
       </c>
       <c r="U232">
-        <v>23879173086.3313</v>
+        <v>23850345317.067104</v>
       </c>
       <c r="V232">
-        <v>25251689031.780815</v>
+        <v>25222861262.51662</v>
       </c>
       <c r="W232">
-        <v>24387833711.719048</v>
+        <v>24359005942.454853</v>
       </c>
       <c r="X232">
-        <v>24586188090.31263</v>
+        <v>24557360321.048435</v>
       </c>
       <c r="Y232">
-        <v>24865340217.507896</v>
+        <v>24836512448.243702</v>
       </c>
       <c r="Z232">
-        <v>26833488341.18203</v>
+        <v>26804660571.917835</v>
       </c>
       <c r="AA232">
-        <v>25262701357.68285</v>
+        <v>25233873588.418655</v>
       </c>
       <c r="AB232">
-        <v>24115893450.48233</v>
+        <v>24087065681.218136</v>
       </c>
       <c r="AC232">
-        <v>27421349758.68773</v>
+        <v>27557950299.914886</v>
+      </c>
+      <c r="AD232">
+        <v>28142036434.99923</v>
+      </c>
+      <c r="AE232">
+        <v>28869736553.343765</v>
       </c>
       <c r="AF232">
-        <v>73249100597.2331</v>
+        <v>73162617289.4405</v>
       </c>
       <c r="AG232">
-        <v>73839362019.53958</v>
+        <v>73752878711.747</v>
       </c>
       <c r="AH232">
-        <v>76212083149.34721</v>
+        <v>76125599841.55463</v>
+      </c>
+      <c r="AI232">
+        <v>84569723288.25787</v>
       </c>
       <c r="AJ232">
-        <v>26285769888.337025</v>
+        <v>26326672739.173225</v>
       </c>
       <c r="AK232">
-        <v>27697080646.452633</v>
+        <v>27737983497.288834</v>
       </c>
       <c r="AL232">
-        <v>28819732081.077682</v>
+        <v>28860634931.913883</v>
       </c>
       <c r="AM232">
-        <v>27416926520.8679</v>
+        <v>27457829371.7041</v>
       </c>
       <c r="AN232">
-        <v>29347236485.196133</v>
+        <v>29388139336.032333</v>
       </c>
       <c r="AO232">
-        <v>30357975389.945446</v>
+        <v>30398878240.781647</v>
       </c>
       <c r="AP232">
-        <v>30470109531.276382</v>
+        <v>30511012382.112583</v>
       </c>
       <c r="AQ232">
-        <v>30303077980.409767</v>
+        <v>30343980831.245968</v>
       </c>
       <c r="AR232">
-        <v>28763443345.99004</v>
+        <v>28804346196.82624</v>
       </c>
       <c r="AS232">
-        <v>30676305145.3725</v>
+        <v>30717207996.208702</v>
+      </c>
+      <c r="AT232">
+        <v>33552408168.001637</v>
+      </c>
+      <c r="AU232">
+        <v>33060709637.71081</v>
       </c>
       <c r="AV232">
-        <v>82802582615.86734</v>
+        <v>82925291168.37595</v>
       </c>
       <c r="AW232">
-        <v>87122138396.00948</v>
+        <v>87244846948.51808</v>
       </c>
       <c r="AX232">
-        <v>89536630857.6762</v>
+        <v>89659339410.18478</v>
+      </c>
+      <c r="AY232">
+        <v>97330325801.92116</v>
       </c>
     </row>
     <row r="233" spans="1:51" x14ac:dyDescent="0.25">
@@ -36630,121 +36738,148 @@
         <v>60</v>
       </c>
       <c r="D233">
-        <v>-26180355090.2464</v>
+        <v>-25904566512.554214</v>
       </c>
       <c r="E233">
-        <v>-30569731059.510845</v>
+        <v>-30293942481.818665</v>
       </c>
       <c r="F233">
-        <v>-39417669147.91048</v>
+        <v>-39141880570.21829</v>
       </c>
       <c r="G233">
-        <v>-32352296924.75197</v>
+        <v>-32076508347.059788</v>
       </c>
       <c r="H233">
-        <v>-27217411925.02263</v>
+        <v>-26941623347.330444</v>
       </c>
       <c r="I233">
-        <v>-27044468235.923744</v>
+        <v>-26768679658.231564</v>
       </c>
       <c r="J233">
-        <v>-25020998391.794426</v>
+        <v>-24745209814.10224</v>
       </c>
       <c r="K233">
-        <v>-28127740728.5596</v>
+        <v>-27851952150.867416</v>
       </c>
       <c r="L233">
-        <v>-31515511183.00811</v>
+        <v>-31239722605.315926</v>
       </c>
       <c r="M233">
-        <v>-28319998380.9656</v>
+        <v>-28044209803.27342</v>
+      </c>
+      <c r="N233">
+        <v>-28156577805.867447</v>
+      </c>
+      <c r="O233">
+        <v>-34136815451.36058</v>
       </c>
       <c r="P233">
-        <v>-96167755297.66772</v>
+        <v>-95340389564.59117</v>
       </c>
       <c r="Q233">
-        <v>-86614177085.69833</v>
+        <v>-85786811352.6218</v>
       </c>
       <c r="R233">
-        <v>-84664250303.36214</v>
+        <v>-83836884570.28558</v>
+      </c>
+      <c r="S233">
+        <v>-90337603060.50145</v>
       </c>
       <c r="T233">
-        <v>14326450240.2005</v>
+        <v>14346967416.666098</v>
       </c>
       <c r="U233">
-        <v>10535808148.41573</v>
+        <v>10556325324.881327</v>
       </c>
       <c r="V233">
-        <v>12086749763.379871</v>
+        <v>12107266939.845469</v>
       </c>
       <c r="W233">
-        <v>13136014590.999228</v>
+        <v>13156531767.464825</v>
       </c>
       <c r="X233">
-        <v>13109222817.309565</v>
+        <v>13129739993.775162</v>
       </c>
       <c r="Y233">
-        <v>12910231707.85996</v>
+        <v>12930748884.325558</v>
       </c>
       <c r="Z233">
-        <v>12975973163.533335</v>
+        <v>12996490339.998932</v>
       </c>
       <c r="AA233">
-        <v>11216146575.323496</v>
+        <v>11236663751.789093</v>
       </c>
       <c r="AB233">
-        <v>11039439541.575249</v>
+        <v>11059956718.040846</v>
       </c>
       <c r="AC233">
-        <v>13846362096.788122</v>
+        <v>13866879273.25372</v>
+      </c>
+      <c r="AD233">
+        <v>13915425157.88793</v>
+      </c>
+      <c r="AE233">
+        <v>11762229556.071028</v>
       </c>
       <c r="AF233">
-        <v>36949008151.9961</v>
+        <v>37010559681.39289</v>
       </c>
       <c r="AG233">
-        <v>39155469116.168755</v>
+        <v>39217020645.565544</v>
       </c>
       <c r="AH233">
-        <v>35231559280.43208</v>
+        <v>35293110809.82887</v>
+      </c>
+      <c r="AI233">
+        <v>39544533987.21268</v>
       </c>
       <c r="AJ233">
-        <v>40506805330.4469</v>
+        <v>40251533929.220314</v>
       </c>
       <c r="AK233">
-        <v>41105539207.926575</v>
+        <v>40850267806.69999</v>
       </c>
       <c r="AL233">
-        <v>51504418911.290344</v>
+        <v>51249147510.06376</v>
       </c>
       <c r="AM233">
-        <v>45488311515.7512</v>
+        <v>45233040114.52461</v>
       </c>
       <c r="AN233">
-        <v>40326634742.33219</v>
+        <v>40071363341.105606</v>
       </c>
       <c r="AO233">
-        <v>39954699943.78371</v>
+        <v>39699428542.55712</v>
       </c>
       <c r="AP233">
-        <v>37996971555.32776</v>
+        <v>37741700154.10117</v>
       </c>
       <c r="AQ233">
-        <v>39343887303.883095</v>
+        <v>39088615902.65651</v>
       </c>
       <c r="AR233">
-        <v>42554950724.58336</v>
+        <v>42299679323.35677</v>
       </c>
       <c r="AS233">
-        <v>42166360477.75372</v>
+        <v>41911089076.52714</v>
+      </c>
+      <c r="AT233">
+        <v>42072002963.75538</v>
+      </c>
+      <c r="AU233">
+        <v>45899045007.43161</v>
       </c>
       <c r="AV233">
-        <v>133116763449.66382</v>
+        <v>132350949245.98407</v>
       </c>
       <c r="AW233">
-        <v>125769646201.8671</v>
+        <v>125003831998.18735</v>
       </c>
       <c r="AX233">
-        <v>119895809583.7942</v>
+        <v>119129995380.11447</v>
+      </c>
+      <c r="AY233">
+        <v>129882137047.71413</v>
       </c>
     </row>
     <row r="234" spans="1:51" x14ac:dyDescent="0.25">
@@ -36758,121 +36893,148 @@
         <v>62</v>
       </c>
       <c r="D234">
-        <v>-20179060823.98813</v>
+        <v>-20180994995.4903</v>
       </c>
       <c r="E234">
-        <v>-19640001188.52752</v>
+        <v>-19641935360.02969</v>
       </c>
       <c r="F234">
-        <v>-17093627390.94561</v>
+        <v>-17095561562.44778</v>
       </c>
       <c r="G234">
-        <v>-16098249981.4543</v>
+        <v>-16100184152.95647</v>
       </c>
       <c r="H234">
-        <v>-18541677988.649693</v>
+        <v>-18543612160.151863</v>
       </c>
       <c r="I234">
-        <v>-19620529439.719822</v>
+        <v>-19622463611.221992</v>
       </c>
       <c r="J234">
-        <v>-18116623744.920883</v>
+        <v>-18118557916.423054</v>
       </c>
       <c r="K234">
-        <v>-19277246744.835197</v>
+        <v>-19279180916.337368</v>
       </c>
       <c r="L234">
-        <v>-18739591948.258507</v>
+        <v>-18741526119.760677</v>
       </c>
       <c r="M234">
-        <v>-16608512924.487698</v>
+        <v>-16610447095.989868</v>
+      </c>
+      <c r="N234">
+        <v>-19377580108.91128</v>
+      </c>
+      <c r="O234">
+        <v>-16329501541.279667</v>
       </c>
       <c r="P234">
-        <v>-56912689403.46126</v>
+        <v>-56918491917.96777</v>
       </c>
       <c r="Q234">
-        <v>-54260457409.82381</v>
+        <v>-54266259924.33033</v>
       </c>
       <c r="R234">
-        <v>-56133462438.01459</v>
+        <v>-56139264952.5211</v>
+      </c>
+      <c r="S234">
+        <v>-52317528746.18082</v>
       </c>
       <c r="T234">
-        <v>20270675069.050026</v>
+        <v>20262172751.713985</v>
       </c>
       <c r="U234">
-        <v>20472020917.59558</v>
+        <v>20463518600.25954</v>
       </c>
       <c r="V234">
-        <v>20157485666.661575</v>
+        <v>20148983349.325535</v>
       </c>
       <c r="W234">
-        <v>22191678306.455467</v>
+        <v>22183175989.119427</v>
       </c>
       <c r="X234">
-        <v>22005538846.299824</v>
+        <v>21997036528.963783</v>
       </c>
       <c r="Y234">
-        <v>22582823729.44518</v>
+        <v>22574321412.10914</v>
       </c>
       <c r="Z234">
-        <v>22705020850.11895</v>
+        <v>22696518532.78291</v>
       </c>
       <c r="AA234">
-        <v>23564398175.948364</v>
+        <v>23555895858.612324</v>
       </c>
       <c r="AB234">
-        <v>23344238901.535576</v>
+        <v>23335736584.199535</v>
       </c>
       <c r="AC234">
-        <v>24940134366.462605</v>
+        <v>24931632049.126564</v>
+      </c>
+      <c r="AD234">
+        <v>24386972889.069996</v>
+      </c>
+      <c r="AE234">
+        <v>25077994787.717243</v>
       </c>
       <c r="AF234">
-        <v>60900181653.30718</v>
+        <v>60874674701.29906</v>
       </c>
       <c r="AG234">
-        <v>66780040882.20047</v>
+        <v>66754533930.192345</v>
       </c>
       <c r="AH234">
-        <v>69613657927.60289</v>
+        <v>69588150975.59477</v>
+      </c>
+      <c r="AI234">
+        <v>74396599725.9138</v>
       </c>
       <c r="AJ234">
-        <v>40449735893.038155</v>
+        <v>40443167747.204285</v>
       </c>
       <c r="AK234">
-        <v>40112022106.1231</v>
+        <v>40105453960.28923</v>
       </c>
       <c r="AL234">
-        <v>37251113057.607185</v>
+        <v>37244544911.773315</v>
       </c>
       <c r="AM234">
-        <v>38289928287.90977</v>
+        <v>38283360142.0759</v>
       </c>
       <c r="AN234">
-        <v>40547216834.94952</v>
+        <v>40540648689.11565</v>
       </c>
       <c r="AO234">
-        <v>42203353169.165</v>
+        <v>42196785023.33113</v>
       </c>
       <c r="AP234">
-        <v>40821644595.03983</v>
+        <v>40815076449.20596</v>
       </c>
       <c r="AQ234">
-        <v>42841644920.78356</v>
+        <v>42835076774.94969</v>
       </c>
       <c r="AR234">
-        <v>42083830849.79408</v>
+        <v>42077262703.96021</v>
       </c>
       <c r="AS234">
-        <v>41548647290.9503</v>
+        <v>41542079145.11643</v>
+      </c>
+      <c r="AT234">
+        <v>43764552997.98128</v>
+      </c>
+      <c r="AU234">
+        <v>41407496328.99691</v>
       </c>
       <c r="AV234">
-        <v>117812871056.76843</v>
+        <v>117793166619.26683</v>
       </c>
       <c r="AW234">
-        <v>121040498292.02429</v>
+        <v>121020793854.52267</v>
       </c>
       <c r="AX234">
-        <v>125747120365.61748</v>
+        <v>125727415928.11588</v>
+      </c>
+      <c r="AY234">
+        <v>126714128472.09464</v>
       </c>
     </row>
     <row r="235" spans="1:51" x14ac:dyDescent="0.25">
@@ -36886,121 +37048,148 @@
         <v>64</v>
       </c>
       <c r="D235">
-        <v>-2334128350.472576</v>
+        <v>-2314446153.3676777</v>
       </c>
       <c r="E235">
-        <v>-2715365789.873667</v>
+        <v>-2695683592.7687683</v>
       </c>
       <c r="F235">
-        <v>-1479678323.7452188</v>
+        <v>-1459996126.6403203</v>
       </c>
       <c r="G235">
-        <v>-1906483926.7684674</v>
+        <v>-1886801729.663569</v>
       </c>
       <c r="H235">
-        <v>-1479775486.5601559</v>
+        <v>-1460093289.4552574</v>
       </c>
       <c r="I235">
-        <v>-1924525013.1366038</v>
+        <v>-1904842816.0317054</v>
       </c>
       <c r="J235">
-        <v>-2113430625.1347141</v>
+        <v>-2093748428.0298157</v>
       </c>
       <c r="K235">
-        <v>-1359638492.048233</v>
+        <v>-1339956294.9433346</v>
       </c>
       <c r="L235">
-        <v>-1844263505.2354608</v>
+        <v>-1824581308.1305623</v>
       </c>
       <c r="M235">
-        <v>-1402731075.015068</v>
+        <v>-1383048877.9101696</v>
+      </c>
+      <c r="N235">
+        <v>-1142214602.1056414</v>
+      </c>
+      <c r="O235">
+        <v>-838559961.9531851</v>
       </c>
       <c r="P235">
-        <v>-6529172464.091461</v>
+        <v>-6470125872.776766</v>
       </c>
       <c r="Q235">
-        <v>-5310784426.465227</v>
+        <v>-5251737835.150532</v>
       </c>
       <c r="R235">
-        <v>-5317332622.418407</v>
+        <v>-5258286031.103712</v>
+      </c>
+      <c r="S235">
+        <v>-3363823441.968996</v>
       </c>
       <c r="T235">
-        <v>2104085130.793166</v>
+        <v>2107317711.7535045</v>
       </c>
       <c r="U235">
-        <v>2152257107.592598</v>
+        <v>2155489688.5529366</v>
       </c>
       <c r="V235">
-        <v>2264495076.6389756</v>
+        <v>2267727657.599314</v>
       </c>
       <c r="W235">
-        <v>2223790451.714258</v>
+        <v>2227023032.674597</v>
       </c>
       <c r="X235">
-        <v>2578335426.3141074</v>
+        <v>2581568007.274446</v>
       </c>
       <c r="Y235">
-        <v>2381663095.164084</v>
+        <v>2384895676.1244226</v>
       </c>
       <c r="Z235">
-        <v>2356918323.0943832</v>
+        <v>2360150904.054722</v>
       </c>
       <c r="AA235">
-        <v>2599980070.4749312</v>
+        <v>2603212651.43527</v>
       </c>
       <c r="AB235">
-        <v>2618886697.352903</v>
+        <v>2622119278.3132415</v>
       </c>
       <c r="AC235">
-        <v>2851489386.1054797</v>
+        <v>2854721967.0658183</v>
+      </c>
+      <c r="AD235">
+        <v>2784334323.484498</v>
+      </c>
+      <c r="AE235">
+        <v>3041275728.667233</v>
       </c>
       <c r="AF235">
-        <v>6520837315.02474</v>
+        <v>6530535057.905756</v>
       </c>
       <c r="AG235">
-        <v>7183788973.19245</v>
+        <v>7193486716.073465</v>
       </c>
       <c r="AH235">
-        <v>7575785090.922218</v>
+        <v>7585482833.803234</v>
+      </c>
+      <c r="AI235">
+        <v>8680332019.217548</v>
       </c>
       <c r="AJ235">
-        <v>4438213481.265742</v>
+        <v>4421763865.121182</v>
       </c>
       <c r="AK235">
-        <v>4867622897.466265</v>
+        <v>4851173281.321705</v>
       </c>
       <c r="AL235">
-        <v>3744173400.3841944</v>
+        <v>3727723784.2396345</v>
       </c>
       <c r="AM235">
-        <v>4130274378.4827256</v>
+        <v>4113824762.3381658</v>
       </c>
       <c r="AN235">
-        <v>4058110912.8742633</v>
+        <v>4041661296.7297034</v>
       </c>
       <c r="AO235">
-        <v>4306188108.300688</v>
+        <v>4289738492.156128</v>
       </c>
       <c r="AP235">
-        <v>4470348948.229097</v>
+        <v>4453899332.0845375</v>
       </c>
       <c r="AQ235">
-        <v>3959618562.5231643</v>
+        <v>3943168946.3786044</v>
       </c>
       <c r="AR235">
-        <v>4463150202.588364</v>
+        <v>4446700586.443804</v>
       </c>
       <c r="AS235">
-        <v>4254220461.120548</v>
+        <v>4237770844.975988</v>
+      </c>
+      <c r="AT235">
+        <v>3926548925.5901394</v>
+      </c>
+      <c r="AU235">
+        <v>3879835690.620418</v>
       </c>
       <c r="AV235">
-        <v>13050009779.1162</v>
+        <v>13000660930.682522</v>
       </c>
       <c r="AW235">
-        <v>12494573399.657677</v>
+        <v>12445224551.223997</v>
       </c>
       <c r="AX235">
-        <v>12893117713.340626</v>
+        <v>12843768864.906946</v>
+      </c>
+      <c r="AY235">
+        <v>12044155461.186546</v>
       </c>
     </row>
     <row r="236" spans="1:51" x14ac:dyDescent="0.25">
@@ -37014,121 +37203,148 @@
         <v>66</v>
       </c>
       <c r="D236">
-        <v>-7231340088.637514</v>
+        <v>-7231078769.68168</v>
       </c>
       <c r="E236">
-        <v>-5422441612.239952</v>
+        <v>-5422180293.284118</v>
       </c>
       <c r="F236">
-        <v>-5552810237.524478</v>
+        <v>-5552548918.568644</v>
       </c>
       <c r="G236">
-        <v>-5121184826.079287</v>
+        <v>-5120923507.123452</v>
       </c>
       <c r="H236">
-        <v>-6218278554.02983</v>
+        <v>-6218017235.073996</v>
       </c>
       <c r="I236">
-        <v>-6313483655.600414</v>
+        <v>-6313222336.64458</v>
       </c>
       <c r="J236">
-        <v>-5580404138.074776</v>
+        <v>-5580142819.118941</v>
       </c>
       <c r="K236">
-        <v>-5816599149.374238</v>
+        <v>-5816337830.418404</v>
       </c>
       <c r="L236">
-        <v>-5657040632.296787</v>
+        <v>-5656779313.340953</v>
       </c>
       <c r="M236">
-        <v>-5738115611.652364</v>
+        <v>-5737854292.696529</v>
+      </c>
+      <c r="N236">
+        <v>-6103281112.481788</v>
+      </c>
+      <c r="O236">
+        <v>-5297717322.5669155</v>
       </c>
       <c r="P236">
-        <v>-18206591938.401943</v>
+        <v>-18205807981.53444</v>
       </c>
       <c r="Q236">
-        <v>-17652947035.70953</v>
+        <v>-17652163078.84203</v>
       </c>
       <c r="R236">
-        <v>-17054043919.7458</v>
+        <v>-17053259962.8783</v>
+      </c>
+      <c r="S236">
+        <v>-17138852727.745234</v>
       </c>
       <c r="T236">
-        <v>4760865764.438446</v>
+        <v>4754742220.664912</v>
       </c>
       <c r="U236">
-        <v>5034804905.404619</v>
+        <v>5028681361.631085</v>
       </c>
       <c r="V236">
-        <v>4971121920.36766</v>
+        <v>4964998376.594126</v>
       </c>
       <c r="W236">
-        <v>5639759328.658823</v>
+        <v>5633635784.885289</v>
       </c>
       <c r="X236">
-        <v>5410153868.297822</v>
+        <v>5404030324.524288</v>
       </c>
       <c r="Y236">
-        <v>5930678284.893435</v>
+        <v>5924554741.119901</v>
       </c>
       <c r="Z236">
-        <v>5561795074.899673</v>
+        <v>5555671531.12614</v>
       </c>
       <c r="AA236">
-        <v>5709465304.401521</v>
+        <v>5703341760.627987</v>
       </c>
       <c r="AB236">
-        <v>5200958635.179415</v>
+        <v>5194835091.405881</v>
       </c>
       <c r="AC236">
-        <v>5740506810.167077</v>
+        <v>5734383266.393543</v>
+      </c>
+      <c r="AD236">
+        <v>5565060561.1365385</v>
+      </c>
+      <c r="AE236">
+        <v>5710234452.890312</v>
       </c>
       <c r="AF236">
-        <v>14766792590.210724</v>
+        <v>14748421958.890123</v>
       </c>
       <c r="AG236">
-        <v>16980591481.85008</v>
+        <v>16962220850.529476</v>
       </c>
       <c r="AH236">
-        <v>16472219014.480608</v>
+        <v>16453848383.160007</v>
+      </c>
+      <c r="AI236">
+        <v>17009678280.420395</v>
       </c>
       <c r="AJ236">
-        <v>11992205853.07596</v>
+        <v>11985820990.346592</v>
       </c>
       <c r="AK236">
-        <v>10457246517.644571</v>
+        <v>10450861654.915203</v>
       </c>
       <c r="AL236">
-        <v>10523932157.892138</v>
+        <v>10517547295.16277</v>
       </c>
       <c r="AM236">
-        <v>10760944154.73811</v>
+        <v>10754559292.008741</v>
       </c>
       <c r="AN236">
-        <v>11628432422.327652</v>
+        <v>11622047559.598284</v>
       </c>
       <c r="AO236">
-        <v>12244161940.493849</v>
+        <v>12237777077.76448</v>
       </c>
       <c r="AP236">
-        <v>11142199212.97445</v>
+        <v>11135814350.24508</v>
       </c>
       <c r="AQ236">
-        <v>11526064453.775759</v>
+        <v>11519679591.04639</v>
       </c>
       <c r="AR236">
-        <v>10857999267.476202</v>
+        <v>10851614404.746834</v>
       </c>
       <c r="AS236">
-        <v>11478622421.81944</v>
+        <v>11472237559.090073</v>
+      </c>
+      <c r="AT236">
+        <v>11668341673.618326</v>
+      </c>
+      <c r="AU236">
+        <v>11007951775.457228</v>
       </c>
       <c r="AV236">
-        <v>32973384528.61267</v>
+        <v>32954229940.424564</v>
       </c>
       <c r="AW236">
-        <v>34633538517.55961</v>
+        <v>34614383929.371506</v>
       </c>
       <c r="AX236">
-        <v>33526262934.22641</v>
+        <v>33507108346.038307</v>
+      </c>
+      <c r="AY236">
+        <v>34148531008.165627</v>
       </c>
     </row>
     <row r="237" spans="1:51" x14ac:dyDescent="0.25">
@@ -37142,121 +37358,148 @@
         <v>88</v>
       </c>
       <c r="D237">
-        <v>2382232716.5777593</v>
+        <v>2359063613.93336</v>
       </c>
       <c r="E237">
-        <v>1225066526.990923</v>
+        <v>1201897424.346524</v>
       </c>
       <c r="F237">
-        <v>2881939600.820393</v>
+        <v>2858770498.175994</v>
       </c>
       <c r="G237">
-        <v>3021720438.116119</v>
+        <v>2998551335.4717197</v>
       </c>
       <c r="H237">
-        <v>2727108503.6248455</v>
+        <v>2703939400.980447</v>
       </c>
       <c r="I237">
-        <v>1729449598.3826232</v>
+        <v>1706280495.7382243</v>
       </c>
       <c r="J237">
-        <v>2296181200.00303</v>
+        <v>2273012097.3586307</v>
       </c>
       <c r="K237">
-        <v>2211325733.1477075</v>
+        <v>2188156630.5033083</v>
       </c>
       <c r="L237">
-        <v>1521949125.696818</v>
+        <v>1498780023.0524192</v>
       </c>
       <c r="M237">
-        <v>2575524803.6744275</v>
+        <v>2552355701.0300283</v>
+      </c>
+      <c r="N237">
+        <v>1611817971.6114376</v>
+      </c>
+      <c r="O237">
+        <v>1880091899.797906</v>
       </c>
       <c r="P237">
-        <v>6489238844.389075</v>
+        <v>6419731536.455878</v>
       </c>
       <c r="Q237">
-        <v>7478278540.123589</v>
+        <v>7408771232.190391</v>
       </c>
       <c r="R237">
-        <v>6029456058.847556</v>
+        <v>5959948750.914358</v>
+      </c>
+      <c r="S237">
+        <v>6044265572.439372</v>
       </c>
       <c r="T237">
-        <v>2650340775.0619254</v>
+        <v>2611611219.411398</v>
       </c>
       <c r="U237">
-        <v>1701688796.7111044</v>
+        <v>1662959241.0605772</v>
       </c>
       <c r="V237">
-        <v>3084677296.18597</v>
+        <v>3045947740.5354424</v>
       </c>
       <c r="W237">
-        <v>3389596586.531124</v>
+        <v>3350867030.8805966</v>
       </c>
       <c r="X237">
-        <v>2957065305.968559</v>
+        <v>2918335750.3180313</v>
       </c>
       <c r="Y237">
-        <v>2151513186.353495</v>
+        <v>2112783630.702968</v>
       </c>
       <c r="Z237">
-        <v>2686754290.262187</v>
+        <v>2648024734.6116595</v>
       </c>
       <c r="AA237">
-        <v>2508081297.1936646</v>
+        <v>2469351741.543137</v>
       </c>
       <c r="AB237">
-        <v>1794673906.9125047</v>
+        <v>1755944351.2619774</v>
       </c>
       <c r="AC237">
-        <v>2884815149.6823397</v>
+        <v>2846085594.031812</v>
+      </c>
+      <c r="AD237">
+        <v>2132968934.559467</v>
+      </c>
+      <c r="AE237">
+        <v>2403173413.082933</v>
       </c>
       <c r="AF237">
-        <v>7436706867.959</v>
+        <v>7320518201.007418</v>
       </c>
       <c r="AG237">
-        <v>8498175078.853178</v>
+        <v>8381986411.901595</v>
       </c>
       <c r="AH237">
-        <v>6989509494.368357</v>
+        <v>6873320827.416774</v>
+      </c>
+      <c r="AI237">
+        <v>7382227941.6742115</v>
       </c>
       <c r="AJ237">
-        <v>268108058.48416618</v>
+        <v>252547605.47803777</v>
       </c>
       <c r="AK237">
-        <v>476622269.7201816</v>
+        <v>461061816.7140532</v>
       </c>
       <c r="AL237">
-        <v>202737695.36557662</v>
+        <v>187177242.35944822</v>
       </c>
       <c r="AM237">
-        <v>367876148.415005</v>
+        <v>352315695.40887666</v>
       </c>
       <c r="AN237">
-        <v>229956802.3437131</v>
+        <v>214396349.3375847</v>
       </c>
       <c r="AO237">
-        <v>422063587.970872</v>
+        <v>406503134.9647436</v>
       </c>
       <c r="AP237">
-        <v>390573090.25915724</v>
+        <v>375012637.25302887</v>
       </c>
       <c r="AQ237">
-        <v>296755564.0459572</v>
+        <v>281195111.03982884</v>
       </c>
       <c r="AR237">
-        <v>272724781.21568656</v>
+        <v>257164328.20955816</v>
       </c>
       <c r="AS237">
-        <v>309290346.00791234</v>
+        <v>293729893.00178397</v>
+      </c>
+      <c r="AT237">
+        <v>521150962.9480296</v>
+      </c>
+      <c r="AU237">
+        <v>523081513.2850271</v>
       </c>
       <c r="AV237">
-        <v>947468023.5699244</v>
+        <v>900786664.5515392</v>
       </c>
       <c r="AW237">
-        <v>1019896538.7295902</v>
+        <v>973215179.711205</v>
       </c>
       <c r="AX237">
-        <v>960053435.5208011</v>
+        <v>913372076.5024158</v>
+      </c>
+      <c r="AY237">
+        <v>1337962369.2348406</v>
       </c>
     </row>
     <row r="238" spans="1:51" x14ac:dyDescent="0.25">
@@ -37270,121 +37513,148 @@
         <v>68</v>
       </c>
       <c r="D238">
-        <v>-2202647762.241559</v>
+        <v>-2195529140.720709</v>
       </c>
       <c r="E238">
-        <v>-1721911659.986188</v>
+        <v>-1714793038.4653378</v>
       </c>
       <c r="F238">
-        <v>-2319483643.963258</v>
+        <v>-2312365022.4424076</v>
       </c>
       <c r="G238">
-        <v>-2607601553.125235</v>
+        <v>-2600482931.604385</v>
       </c>
       <c r="H238">
-        <v>-2498993478.053145</v>
+        <v>-2491874856.5322948</v>
       </c>
       <c r="I238">
-        <v>-3532615218.6788707</v>
+        <v>-3525496597.1580205</v>
       </c>
       <c r="J238">
-        <v>-2808901013.2144833</v>
+        <v>-2801782391.693633</v>
       </c>
       <c r="K238">
-        <v>-2978733615.3282223</v>
+        <v>-2971614993.807372</v>
       </c>
       <c r="L238">
-        <v>-2552236558.3259473</v>
+        <v>-2545117936.805097</v>
       </c>
       <c r="M238">
-        <v>-3063043271.0174966</v>
+        <v>-3055924649.4966464</v>
+      </c>
+      <c r="N238">
+        <v>-3002736541.038016</v>
+      </c>
+      <c r="O238">
+        <v>-3913103983.2360744</v>
       </c>
       <c r="P238">
-        <v>-6244043066.191005</v>
+        <v>-6222687201.628454</v>
       </c>
       <c r="Q238">
-        <v>-8639210249.85725</v>
+        <v>-8617854385.2947</v>
       </c>
       <c r="R238">
-        <v>-8339871186.868652</v>
+        <v>-8318515322.306103</v>
+      </c>
+      <c r="S238">
+        <v>-9971765173.770737</v>
       </c>
       <c r="T238">
-        <v>3056704872.962597</v>
+        <v>3053921648.6485863</v>
       </c>
       <c r="U238">
-        <v>3043748196.6050787</v>
+        <v>3040964972.291068</v>
       </c>
       <c r="V238">
-        <v>3159203402.588026</v>
+        <v>3156420178.2740154</v>
       </c>
       <c r="W238">
-        <v>3038722122.0377936</v>
+        <v>3035938897.723783</v>
       </c>
       <c r="X238">
-        <v>3241793374.1484847</v>
+        <v>3239010149.834474</v>
       </c>
       <c r="Y238">
-        <v>2928560287.482455</v>
+        <v>2925777063.168444</v>
       </c>
       <c r="Z238">
-        <v>3432684559.342945</v>
+        <v>3429901335.0289345</v>
       </c>
       <c r="AA238">
-        <v>3581708195.366232</v>
+        <v>3578924971.0522213</v>
       </c>
       <c r="AB238">
-        <v>3560949602.87791</v>
+        <v>3558166378.5638995</v>
       </c>
       <c r="AC238">
-        <v>3704903518.835179</v>
+        <v>3702120294.521168</v>
+      </c>
+      <c r="AD238">
+        <v>3716607250.209476</v>
+      </c>
+      <c r="AE238">
+        <v>3692331279.6839285</v>
       </c>
       <c r="AF238">
-        <v>9259656472.1557</v>
+        <v>9251306799.213669</v>
       </c>
       <c r="AG238">
-        <v>9209075783.668734</v>
+        <v>9200726110.726702</v>
       </c>
       <c r="AH238">
-        <v>10575342357.587088</v>
+        <v>10566992684.645056</v>
+      </c>
+      <c r="AI238">
+        <v>11111058824.414574</v>
       </c>
       <c r="AJ238">
-        <v>5259352635.204156</v>
+        <v>5249450789.369295</v>
       </c>
       <c r="AK238">
-        <v>4765659856.591267</v>
+        <v>4755758010.756406</v>
       </c>
       <c r="AL238">
-        <v>5478687046.551284</v>
+        <v>5468785200.716423</v>
       </c>
       <c r="AM238">
-        <v>5646323675.163029</v>
+        <v>5636421829.328168</v>
       </c>
       <c r="AN238">
-        <v>5740786852.20163</v>
+        <v>5730885006.366769</v>
       </c>
       <c r="AO238">
-        <v>6461175506.161325</v>
+        <v>6451273660.326465</v>
       </c>
       <c r="AP238">
-        <v>6241585572.557428</v>
+        <v>6231683726.722568</v>
       </c>
       <c r="AQ238">
-        <v>6560441810.694454</v>
+        <v>6550539964.859593</v>
       </c>
       <c r="AR238">
-        <v>6113186161.203857</v>
+        <v>6103284315.368997</v>
       </c>
       <c r="AS238">
-        <v>6767946789.852675</v>
+        <v>6758044944.017815</v>
+      </c>
+      <c r="AT238">
+        <v>6719343791.247492</v>
+      </c>
+      <c r="AU238">
+        <v>7605435262.920003</v>
       </c>
       <c r="AV238">
-        <v>15503699538.346706</v>
+        <v>15473994000.842125</v>
       </c>
       <c r="AW238">
-        <v>17848286033.525986</v>
+        <v>17818580496.0214</v>
       </c>
       <c r="AX238">
-        <v>18915213544.45574</v>
+        <v>18885508006.951157</v>
+      </c>
+      <c r="AY238">
+        <v>21082823998.18531</v>
       </c>
     </row>
     <row r="239" spans="1:51" x14ac:dyDescent="0.25">
@@ -37398,121 +37668,148 @@
         <v>70</v>
       </c>
       <c r="D239">
-        <v>-2930548997.949321</v>
+        <v>-2940225000.3822656</v>
       </c>
       <c r="E239">
-        <v>-3261546167.0648675</v>
+        <v>-3271222169.4978123</v>
       </c>
       <c r="F239">
-        <v>-2911941762.7974024</v>
+        <v>-2921617765.2303476</v>
       </c>
       <c r="G239">
-        <v>-2852891162.044444</v>
+        <v>-2862567164.4773893</v>
       </c>
       <c r="H239">
-        <v>-3192312048.199012</v>
+        <v>-3201988050.6319566</v>
       </c>
       <c r="I239">
-        <v>-3701501509.3766365</v>
+        <v>-3711177511.8095818</v>
       </c>
       <c r="J239">
-        <v>-3508657472.9556456</v>
+        <v>-3518333475.388591</v>
       </c>
       <c r="K239">
-        <v>-3105893058.8185015</v>
+        <v>-3115569061.2514467</v>
       </c>
       <c r="L239">
-        <v>-3546910779.061062</v>
+        <v>-3556586781.494007</v>
       </c>
       <c r="M239">
-        <v>-3420425032.4296865</v>
+        <v>-3430101034.8626313</v>
+      </c>
+      <c r="N239">
+        <v>-3654798517.6926227</v>
+      </c>
+      <c r="O239">
+        <v>-3097440703.2813416</v>
       </c>
       <c r="P239">
-        <v>-9104036927.811592</v>
+        <v>-9133064935.110424</v>
       </c>
       <c r="Q239">
-        <v>-9746704719.620092</v>
+        <v>-9775732726.918928</v>
       </c>
       <c r="R239">
-        <v>-10161461310.835209</v>
+        <v>-10190489318.134045</v>
+      </c>
+      <c r="S239">
+        <v>-10182340255.836596</v>
       </c>
       <c r="T239">
-        <v>1939120930.6795828</v>
+        <v>1937069503.1650977</v>
       </c>
       <c r="U239">
-        <v>1549045949.9565425</v>
+        <v>1546994522.4420574</v>
       </c>
       <c r="V239">
-        <v>1659767213.197317</v>
+        <v>1657715785.6828318</v>
       </c>
       <c r="W239">
-        <v>1917277472.3566542</v>
+        <v>1915226044.842169</v>
       </c>
       <c r="X239">
-        <v>1992140304.3358138</v>
+        <v>1990088876.8213286</v>
       </c>
       <c r="Y239">
-        <v>1830753283.3624303</v>
+        <v>1828701855.8479452</v>
       </c>
       <c r="Z239">
-        <v>1773248308.021613</v>
+        <v>1771196880.5071278</v>
       </c>
       <c r="AA239">
-        <v>1988695355.8083591</v>
+        <v>1986643928.293874</v>
       </c>
       <c r="AB239">
-        <v>1511748072.1531696</v>
+        <v>1509696644.6386845</v>
       </c>
       <c r="AC239">
-        <v>1878105660.6872113</v>
+        <v>1876054233.1727262</v>
+      </c>
+      <c r="AD239">
+        <v>1758312105.5667539</v>
+      </c>
+      <c r="AE239">
+        <v>1935620433.0194032</v>
       </c>
       <c r="AF239">
-        <v>5147934093.833443</v>
+        <v>5141779811.289987</v>
       </c>
       <c r="AG239">
-        <v>5740171060.054898</v>
+        <v>5734016777.511443</v>
       </c>
       <c r="AH239">
-        <v>5273691735.983142</v>
+        <v>5267537453.439686</v>
+      </c>
+      <c r="AI239">
+        <v>5569986771.758883</v>
       </c>
       <c r="AJ239">
-        <v>4869669928.628903</v>
+        <v>4877294503.547363</v>
       </c>
       <c r="AK239">
-        <v>4810592117.02141</v>
+        <v>4818216691.93987</v>
       </c>
       <c r="AL239">
-        <v>4571708975.9947195</v>
+        <v>4579333550.913179</v>
       </c>
       <c r="AM239">
-        <v>4770168634.401098</v>
+        <v>4777793209.319558</v>
       </c>
       <c r="AN239">
-        <v>5184452352.534825</v>
+        <v>5192076927.453285</v>
       </c>
       <c r="AO239">
-        <v>5532254792.739067</v>
+        <v>5539879367.657527</v>
       </c>
       <c r="AP239">
-        <v>5281905780.977259</v>
+        <v>5289530355.895719</v>
       </c>
       <c r="AQ239">
-        <v>5094588414.626861</v>
+        <v>5102212989.5453205</v>
       </c>
       <c r="AR239">
-        <v>5058658851.2142315</v>
+        <v>5066283426.132691</v>
       </c>
       <c r="AS239">
-        <v>5298530693.116898</v>
+        <v>5306155268.035357</v>
+      </c>
+      <c r="AT239">
+        <v>5413110623.259377</v>
+      </c>
+      <c r="AU239">
+        <v>5033061136.300745</v>
       </c>
       <c r="AV239">
-        <v>14251971021.645035</v>
+        <v>14274844746.400412</v>
       </c>
       <c r="AW239">
-        <v>15486875779.674992</v>
+        <v>15509749504.43037</v>
       </c>
       <c r="AX239">
-        <v>15435153046.81835</v>
+        <v>15458026771.57373</v>
+      </c>
+      <c r="AY239">
+        <v>15752327027.59548</v>
       </c>
     </row>
     <row r="240" spans="1:51" x14ac:dyDescent="0.25">
@@ -37526,121 +37823,148 @@
         <v>72</v>
       </c>
       <c r="D240">
-        <v>-5220134733.86374</v>
+        <v>-5225431276.612627</v>
       </c>
       <c r="E240">
-        <v>-4492512906.5175295</v>
+        <v>-4497809449.266417</v>
       </c>
       <c r="F240">
-        <v>-5289021232.155344</v>
+        <v>-5294317774.904231</v>
       </c>
       <c r="G240">
-        <v>-5431163479.299683</v>
+        <v>-5436460022.04857</v>
       </c>
       <c r="H240">
-        <v>-5862630955.91289</v>
+        <v>-5867927498.6617775</v>
       </c>
       <c r="I240">
-        <v>-4942495791.631323</v>
+        <v>-4947792334.38021</v>
       </c>
       <c r="J240">
-        <v>-6017609153.165942</v>
+        <v>-6022905695.914829</v>
       </c>
       <c r="K240">
-        <v>-5553202277.894871</v>
+        <v>-5558498820.643758</v>
       </c>
       <c r="L240">
-        <v>-4996912550.209469</v>
+        <v>-5002209092.958356</v>
       </c>
       <c r="M240">
-        <v>-3645361472.4053555</v>
+        <v>-3650658015.1542425</v>
+      </c>
+      <c r="N240">
+        <v>-3639367122.482938</v>
+      </c>
+      <c r="O240">
+        <v>-5019503501.972032</v>
       </c>
       <c r="P240">
-        <v>-15001668872.536613</v>
+        <v>-15017558500.783276</v>
       </c>
       <c r="Q240">
-        <v>-16236290226.843897</v>
+        <v>-16252179855.090557</v>
       </c>
       <c r="R240">
-        <v>-16567723981.270283</v>
+        <v>-16583613609.516941</v>
+      </c>
+      <c r="S240">
+        <v>-12309528639.609211</v>
       </c>
       <c r="T240">
-        <v>6259016360.909326</v>
+        <v>6258768755.930103</v>
       </c>
       <c r="U240">
-        <v>5567756601.285403</v>
+        <v>5567508996.306181</v>
       </c>
       <c r="V240">
-        <v>5892730211.547504</v>
+        <v>5892482606.568282</v>
       </c>
       <c r="W240">
-        <v>6585653951.755455</v>
+        <v>6585406346.776233</v>
       </c>
       <c r="X240">
-        <v>6409824234.343732</v>
+        <v>6409576629.36451</v>
       </c>
       <c r="Y240">
-        <v>6420640590.0744915</v>
+        <v>6420392985.095269</v>
       </c>
       <c r="Z240">
-        <v>5904422676.773749</v>
+        <v>5904175071.794527</v>
       </c>
       <c r="AA240">
-        <v>6262365444.6917515</v>
+        <v>6262117839.712529</v>
       </c>
       <c r="AB240">
-        <v>6048157726.333557</v>
+        <v>6047910121.354335</v>
       </c>
       <c r="AC240">
-        <v>6658599287.50186</v>
+        <v>6658351682.522637</v>
+      </c>
+      <c r="AD240">
+        <v>6819904146.166772</v>
+      </c>
+      <c r="AE240">
+        <v>6143597114.408622</v>
       </c>
       <c r="AF240">
-        <v>17719503173.742233</v>
+        <v>17718760358.804565</v>
       </c>
       <c r="AG240">
-        <v>19416118776.173676</v>
+        <v>19415375961.23601</v>
       </c>
       <c r="AH240">
-        <v>18214945847.799057</v>
+        <v>18214203032.861393</v>
+      </c>
+      <c r="AI240">
+        <v>19621852943.09803</v>
       </c>
       <c r="AJ240">
-        <v>11479151094.773066</v>
+        <v>11484200032.54273</v>
       </c>
       <c r="AK240">
-        <v>10060269507.802933</v>
+        <v>10065318445.572598</v>
       </c>
       <c r="AL240">
-        <v>11181751443.702848</v>
+        <v>11186800381.472513</v>
       </c>
       <c r="AM240">
-        <v>12016817431.055138</v>
+        <v>12021866368.824802</v>
       </c>
       <c r="AN240">
-        <v>12272455190.256622</v>
+        <v>12277504128.026287</v>
       </c>
       <c r="AO240">
-        <v>11363136381.705814</v>
+        <v>11368185319.47548</v>
       </c>
       <c r="AP240">
-        <v>11922031829.939692</v>
+        <v>11927080767.709356</v>
       </c>
       <c r="AQ240">
-        <v>11815567722.586622</v>
+        <v>11820616660.356287</v>
       </c>
       <c r="AR240">
-        <v>11045070276.543026</v>
+        <v>11050119214.31269</v>
       </c>
       <c r="AS240">
-        <v>10303960759.907215</v>
+        <v>10309009697.67688</v>
+      </c>
+      <c r="AT240">
+        <v>10459271268.64971</v>
+      </c>
+      <c r="AU240">
+        <v>11163100616.380653</v>
       </c>
       <c r="AV240">
-        <v>32721172046.278847</v>
+        <v>32736318859.587837</v>
       </c>
       <c r="AW240">
-        <v>35652409003.01758</v>
+        <v>35667555816.32657</v>
       </c>
       <c r="AX240">
-        <v>34782669829.069336</v>
+        <v>34797816642.378334</v>
+      </c>
+      <c r="AY240">
+        <v>31931381582.707245</v>
       </c>
     </row>
     <row r="241" spans="1:51" x14ac:dyDescent="0.25">
@@ -37654,121 +37978,148 @@
         <v>74</v>
       </c>
       <c r="D241">
-        <v>-949488767.2301369</v>
+        <v>-955802063.0478821</v>
       </c>
       <c r="E241">
-        <v>-2212073427.7962656</v>
+        <v>-2218386723.614011</v>
       </c>
       <c r="F241">
-        <v>-2028230002.603445</v>
+        <v>-2034543298.4211903</v>
       </c>
       <c r="G241">
-        <v>-1179895114.6896076</v>
+        <v>-1186208410.5073528</v>
       </c>
       <c r="H241">
-        <v>-2265920012.660225</v>
+        <v>-2272233308.47797</v>
       </c>
       <c r="I241">
-        <v>-2823940808.250246</v>
+        <v>-2830254104.0679913</v>
       </c>
       <c r="J241">
-        <v>-2148480759.02732</v>
+        <v>-2154794054.845065</v>
       </c>
       <c r="K241">
-        <v>-3121391609.019576</v>
+        <v>-3127704904.8373213</v>
       </c>
       <c r="L241">
-        <v>-3799005295.046999</v>
+        <v>-3805318590.864744</v>
       </c>
       <c r="M241">
-        <v>-2675530897.0712357</v>
+        <v>-2681844192.888981</v>
+      </c>
+      <c r="N241">
+        <v>-2245916229.257661</v>
+      </c>
+      <c r="O241">
+        <v>-3669732647.1698074</v>
       </c>
       <c r="P241">
-        <v>-5189792197.629848</v>
+        <v>-5208732085.083083</v>
       </c>
       <c r="Q241">
-        <v>-6269755935.600079</v>
+        <v>-6288695823.053314</v>
       </c>
       <c r="R241">
-        <v>-9068877663.093895</v>
+        <v>-9087817550.54713</v>
+      </c>
+      <c r="S241">
+        <v>-8597493069.316448</v>
       </c>
       <c r="T241">
-        <v>5617076300.049991</v>
+        <v>5607194929.212897</v>
       </c>
       <c r="U241">
-        <v>4774085446.340465</v>
+        <v>4764204075.503371</v>
       </c>
       <c r="V241">
-        <v>5334755148.872685</v>
+        <v>5324873778.035592</v>
       </c>
       <c r="W241">
-        <v>6429629577.3848</v>
+        <v>6419748206.547707</v>
       </c>
       <c r="X241">
-        <v>5603061684.044136</v>
+        <v>5593180313.207043</v>
       </c>
       <c r="Y241">
-        <v>5535529106.267823</v>
+        <v>5525647735.43073</v>
       </c>
       <c r="Z241">
-        <v>5940687156.007532</v>
+        <v>5930805785.170439</v>
       </c>
       <c r="AA241">
-        <v>5407414500.587707</v>
+        <v>5397533129.750613</v>
       </c>
       <c r="AB241">
-        <v>5579172325.37961</v>
+        <v>5569290954.542517</v>
       </c>
       <c r="AC241">
-        <v>5092464417.886905</v>
+        <v>5082583047.049811</v>
+      </c>
+      <c r="AD241">
+        <v>5732687899.912734</v>
+      </c>
+      <c r="AE241">
+        <v>4824050738.636556</v>
       </c>
       <c r="AF241">
-        <v>15725916895.263142</v>
+        <v>15696272782.751862</v>
       </c>
       <c r="AG241">
-        <v>17568220367.69676</v>
+        <v>17538576255.18548</v>
       </c>
       <c r="AH241">
-        <v>16927273981.974848</v>
+        <v>16897629869.463568</v>
+      </c>
+      <c r="AI241">
+        <v>15639321685.599102</v>
       </c>
       <c r="AJ241">
-        <v>6566565067.280128</v>
+        <v>6562996992.260779</v>
       </c>
       <c r="AK241">
-        <v>6986158874.13673</v>
+        <v>6982590799.117382</v>
       </c>
       <c r="AL241">
-        <v>7362985151.4761305</v>
+        <v>7359417076.456782</v>
       </c>
       <c r="AM241">
-        <v>7609524692.074408</v>
+        <v>7605956617.055059</v>
       </c>
       <c r="AN241">
-        <v>7868981696.704361</v>
+        <v>7865413621.685013</v>
       </c>
       <c r="AO241">
-        <v>8359469914.518069</v>
+        <v>8355901839.498721</v>
       </c>
       <c r="AP241">
-        <v>8089167915.034852</v>
+        <v>8085599840.015504</v>
       </c>
       <c r="AQ241">
-        <v>8528806109.607283</v>
+        <v>8525238034.5879345</v>
       </c>
       <c r="AR241">
-        <v>9378177620.426609</v>
+        <v>9374609545.40726</v>
       </c>
       <c r="AS241">
-        <v>7767995314.95814</v>
+        <v>7764427239.938792</v>
+      </c>
+      <c r="AT241">
+        <v>7978604129.170395</v>
+      </c>
+      <c r="AU241">
+        <v>8493783385.806363</v>
       </c>
       <c r="AV241">
-        <v>20915709092.89299</v>
+        <v>20905004867.834946</v>
       </c>
       <c r="AW241">
-        <v>23837976303.296837</v>
+        <v>23827272078.238792</v>
       </c>
       <c r="AX241">
-        <v>25996151645.068745</v>
+        <v>25985447420.0107</v>
+      </c>
+      <c r="AY241">
+        <v>24236814754.91555</v>
       </c>
     </row>
     <row r="242" spans="1:51" x14ac:dyDescent="0.25">
@@ -37782,121 +38133,148 @@
         <v>76</v>
       </c>
       <c r="D242">
-        <v>-12389821786.679852</v>
+        <v>-12343720124.478638</v>
       </c>
       <c r="E242">
-        <v>-7145675123.405373</v>
+        <v>-7099573461.204159</v>
       </c>
       <c r="F242">
-        <v>-8715205998.903393</v>
+        <v>-8669104336.702179</v>
       </c>
       <c r="G242">
-        <v>-9960798835.559559</v>
+        <v>-9914697173.358345</v>
       </c>
       <c r="H242">
-        <v>-7721030678.567165</v>
+        <v>-7674929016.365952</v>
       </c>
       <c r="I242">
-        <v>-7245202355.618805</v>
+        <v>-7199100693.417591</v>
       </c>
       <c r="J242">
-        <v>-8511263242.158684</v>
+        <v>-8465161579.95747</v>
       </c>
       <c r="K242">
-        <v>-6587934690.28656</v>
+        <v>-6541833028.085346</v>
       </c>
       <c r="L242">
-        <v>-8849446519.277054</v>
+        <v>-8803344857.07584</v>
       </c>
       <c r="M242">
-        <v>-9690322064.651947</v>
+        <v>-9644220402.450733</v>
+      </c>
+      <c r="N242">
+        <v>-10907384265.104046</v>
+      </c>
+      <c r="O242">
+        <v>-10983546280.799747</v>
       </c>
       <c r="P242">
-        <v>-28250702908.988617</v>
+        <v>-28112397922.384975</v>
       </c>
       <c r="Q242">
-        <v>-24927031869.74553</v>
+        <v>-24788726883.141888</v>
       </c>
       <c r="R242">
-        <v>-23948644451.722298</v>
+        <v>-23810339465.118656</v>
+      </c>
+      <c r="S242">
+        <v>-31535150948.354527</v>
       </c>
       <c r="T242">
-        <v>20391508055.40413</v>
+        <v>20398530261.584946</v>
       </c>
       <c r="U242">
-        <v>22620215741.73072</v>
+        <v>22627237947.911537</v>
       </c>
       <c r="V242">
-        <v>22465695657.355564</v>
+        <v>22472717863.53638</v>
       </c>
       <c r="W242">
-        <v>22482296123.34567</v>
+        <v>22489318329.526485</v>
       </c>
       <c r="X242">
-        <v>23465343811.46364</v>
+        <v>23472366017.644455</v>
       </c>
       <c r="Y242">
-        <v>23734151275.923744</v>
+        <v>23741173482.10456</v>
       </c>
       <c r="Z242">
-        <v>23224434855.48749</v>
+        <v>23231457061.66831</v>
       </c>
       <c r="AA242">
-        <v>24128086145.897324</v>
+        <v>24135108352.07814</v>
       </c>
       <c r="AB242">
-        <v>22405696393.770245</v>
+        <v>22412718599.95106</v>
       </c>
       <c r="AC242">
-        <v>23351067885.364155</v>
+        <v>23358090091.54497</v>
+      </c>
+      <c r="AD242">
+        <v>23653529269.253277</v>
+      </c>
+      <c r="AE242">
+        <v>24466604776.19588</v>
       </c>
       <c r="AF242">
-        <v>65477419454.49042</v>
+        <v>65498486073.03287</v>
       </c>
       <c r="AG242">
-        <v>69681791210.73306</v>
+        <v>69702857829.27551</v>
       </c>
       <c r="AH242">
-        <v>69758217395.15506</v>
+        <v>69779284013.69751</v>
+      </c>
+      <c r="AI242">
+        <v>71478224136.99413</v>
       </c>
       <c r="AJ242">
-        <v>32781329842.08398</v>
+        <v>32742250386.063583</v>
       </c>
       <c r="AK242">
-        <v>29765890865.136093</v>
+        <v>29726811409.115696</v>
       </c>
       <c r="AL242">
-        <v>31180901656.258957</v>
+        <v>31141822200.23856</v>
       </c>
       <c r="AM242">
-        <v>32443094958.905228</v>
+        <v>32404015502.88483</v>
       </c>
       <c r="AN242">
-        <v>31186374490.030804</v>
+        <v>31147295034.010406</v>
       </c>
       <c r="AO242">
-        <v>30979353631.54255</v>
+        <v>30940274175.522152</v>
       </c>
       <c r="AP242">
-        <v>31735698097.646175</v>
+        <v>31696618641.62578</v>
       </c>
       <c r="AQ242">
-        <v>30716020836.183884</v>
+        <v>30676941380.163486</v>
       </c>
       <c r="AR242">
-        <v>31255142913.0473</v>
+        <v>31216063457.0269</v>
       </c>
       <c r="AS242">
-        <v>33041389950.0161</v>
+        <v>33002310493.995705</v>
+      </c>
+      <c r="AT242">
+        <v>34560913534.35732</v>
+      </c>
+      <c r="AU242">
+        <v>35450151056.99563</v>
       </c>
       <c r="AV242">
-        <v>93728122363.47903</v>
+        <v>93610883995.41783</v>
       </c>
       <c r="AW242">
-        <v>94608823080.47858</v>
+        <v>94491584712.41739</v>
       </c>
       <c r="AX242">
-        <v>93706861846.87737</v>
+        <v>93589623478.81616</v>
+      </c>
+      <c r="AY242">
+        <v>103013375085.34866</v>
       </c>
     </row>
     <row r="243" spans="1:51" x14ac:dyDescent="0.25">
@@ -37910,121 +38288,148 @@
         <v>82</v>
       </c>
       <c r="D243">
-        <v>483608801.38253176</v>
+        <v>468095973.2403376</v>
       </c>
       <c r="E243">
-        <v>104219397.60759783</v>
+        <v>88706569.46540368</v>
       </c>
       <c r="F243">
-        <v>-28004853.24903202</v>
+        <v>-43517681.39122617</v>
       </c>
       <c r="G243">
-        <v>284757503.34892046</v>
+        <v>269244675.2067263</v>
       </c>
       <c r="H243">
-        <v>-258304096.7402879</v>
+        <v>-273816924.88248205</v>
       </c>
       <c r="I243">
-        <v>-254660223.46220708</v>
+        <v>-270173051.6044011</v>
       </c>
       <c r="J243">
-        <v>-320915262.3722347</v>
+        <v>-336428090.51442873</v>
       </c>
       <c r="K243">
-        <v>-557569928.9028082</v>
+        <v>-573082757.0450022</v>
       </c>
       <c r="L243">
-        <v>-507284950.105067</v>
+        <v>-522797778.24726105</v>
       </c>
       <c r="M243">
-        <v>-62407554.65999007</v>
+        <v>-77920382.8021841</v>
+      </c>
+      <c r="N243">
+        <v>-429887243.3480158</v>
+      </c>
+      <c r="O243">
+        <v>-687413377.077466</v>
       </c>
       <c r="P243">
-        <v>559823345.7410976</v>
+        <v>513284861.3145151</v>
       </c>
       <c r="Q243">
-        <v>-228206816.8535745</v>
+        <v>-274745301.28015685</v>
       </c>
       <c r="R243">
-        <v>-1385770141.3801098</v>
+        <v>-1432308625.8066921</v>
+      </c>
+      <c r="S243">
+        <v>-1195221003.227666</v>
       </c>
       <c r="T243">
-        <v>1015696561.0404667</v>
+        <v>1013377903.3569916</v>
       </c>
       <c r="U243">
-        <v>754856454.8893348</v>
+        <v>752537797.2058598</v>
       </c>
       <c r="V243">
-        <v>829241266.8759714</v>
+        <v>826922609.1924964</v>
       </c>
       <c r="W243">
-        <v>1120730163.9137976</v>
+        <v>1118411506.2303226</v>
       </c>
       <c r="X243">
-        <v>734106382.7541734</v>
+        <v>731787725.0706984</v>
       </c>
       <c r="Y243">
-        <v>1123738701.1653726</v>
+        <v>1121420043.4818976</v>
       </c>
       <c r="Z243">
-        <v>1008322306.2260171</v>
+        <v>1006003648.5425421</v>
       </c>
       <c r="AA243">
-        <v>644358812.2060752</v>
+        <v>642040154.5226002</v>
       </c>
       <c r="AB243">
-        <v>799779477.4367697</v>
+        <v>797460819.7532947</v>
       </c>
       <c r="AC243">
-        <v>1179835624.9337983</v>
+        <v>1177516967.2503233</v>
+      </c>
+      <c r="AD243">
+        <v>1034124269.9541204</v>
+      </c>
+      <c r="AE243">
+        <v>916439005.4388535</v>
       </c>
       <c r="AF243">
-        <v>2599794282.805773</v>
+        <v>2592838309.7553477</v>
       </c>
       <c r="AG243">
-        <v>2978575247.8333435</v>
+        <v>2971619274.782919</v>
       </c>
       <c r="AH243">
-        <v>2452460595.868862</v>
+        <v>2445504622.8184366</v>
+      </c>
+      <c r="AI243">
+        <v>3128080242.643297</v>
       </c>
       <c r="AJ243">
-        <v>532087759.6579349</v>
+        <v>545281930.116654</v>
       </c>
       <c r="AK243">
-        <v>650637057.281737</v>
+        <v>663831227.7404561</v>
       </c>
       <c r="AL243">
-        <v>857246120.1250035</v>
+        <v>870440290.5837226</v>
       </c>
       <c r="AM243">
-        <v>835972660.5648772</v>
+        <v>849166831.0235963</v>
       </c>
       <c r="AN243">
-        <v>992410479.4944613</v>
+        <v>1005604649.9531804</v>
       </c>
       <c r="AO243">
-        <v>1378398924.6275797</v>
+        <v>1391593095.0862987</v>
       </c>
       <c r="AP243">
-        <v>1329237568.5982518</v>
+        <v>1342431739.0569708</v>
       </c>
       <c r="AQ243">
-        <v>1201928741.1088834</v>
+        <v>1215122911.5676024</v>
       </c>
       <c r="AR243">
-        <v>1307064427.5418367</v>
+        <v>1320258598.0005558</v>
       </c>
       <c r="AS243">
-        <v>1242243179.5937884</v>
+        <v>1255437350.0525074</v>
+      </c>
+      <c r="AT243">
+        <v>1464011513.3021362</v>
+      </c>
+      <c r="AU243">
+        <v>1603852382.5163195</v>
       </c>
       <c r="AV243">
-        <v>2039970937.0646753</v>
+        <v>2079553448.4408326</v>
       </c>
       <c r="AW243">
-        <v>3206782064.6869183</v>
+        <v>3246364576.063075</v>
       </c>
       <c r="AX243">
-        <v>3838230737.248972</v>
+        <v>3877813248.6251287</v>
+      </c>
+      <c r="AY243">
+        <v>4323301245.870963</v>
       </c>
     </row>
     <row r="244" spans="1:51" x14ac:dyDescent="0.25">
@@ -38038,121 +38443,148 @@
         <v>90</v>
       </c>
       <c r="D244">
-        <v>-111016814.0410204</v>
+        <v>-110979504.95406961</v>
       </c>
       <c r="E244">
-        <v>504471268.0993881</v>
+        <v>504508577.1863389</v>
       </c>
       <c r="F244">
-        <v>520230042.41034555</v>
+        <v>520267351.49729633</v>
       </c>
       <c r="G244">
-        <v>802084595.0937757</v>
+        <v>802121904.1807265</v>
       </c>
       <c r="H244">
-        <v>121753664.99870777</v>
+        <v>121790974.08565855</v>
       </c>
       <c r="I244">
-        <v>610281462.8127952</v>
+        <v>610318771.899746</v>
       </c>
       <c r="J244">
-        <v>1250024203.7984638</v>
+        <v>1250061512.8854146</v>
       </c>
       <c r="K244">
-        <v>1015475794.941602</v>
+        <v>1015513104.0285528</v>
       </c>
       <c r="L244">
-        <v>-21072311.050857067</v>
+        <v>-21035001.96390629</v>
       </c>
       <c r="M244">
-        <v>499657315.3203702</v>
+        <v>499694624.407321</v>
+      </c>
+      <c r="N244">
+        <v>326837107.8448005</v>
+      </c>
+      <c r="O244">
+        <v>809689661.9021206</v>
       </c>
       <c r="P244">
-        <v>913684496.4687133</v>
+        <v>913796423.7295656</v>
       </c>
       <c r="Q244">
-        <v>1534119722.9052787</v>
+        <v>1534231650.166131</v>
       </c>
       <c r="R244">
-        <v>2244427687.6892085</v>
+        <v>2244539614.950061</v>
+      </c>
+      <c r="S244">
+        <v>1636221394.154242</v>
       </c>
       <c r="T244">
-        <v>2380631761.6986256</v>
+        <v>2384678325.7244687</v>
       </c>
       <c r="U244">
-        <v>2630438137.255261</v>
+        <v>2634484701.281104</v>
       </c>
       <c r="V244">
-        <v>3284420690.07669</v>
+        <v>3288467254.1025333</v>
       </c>
       <c r="W244">
-        <v>3266706874.042349</v>
+        <v>3270753438.068192</v>
       </c>
       <c r="X244">
-        <v>2590254033.860768</v>
+        <v>2594300597.886611</v>
       </c>
       <c r="Y244">
-        <v>3034929287.0576625</v>
+        <v>3038975851.0835056</v>
       </c>
       <c r="Z244">
-        <v>3525733418.2725806</v>
+        <v>3529779982.298424</v>
       </c>
       <c r="AA244">
-        <v>3030789993.2550955</v>
+        <v>3034836557.2809386</v>
       </c>
       <c r="AB244">
-        <v>2825589169.8655677</v>
+        <v>2829635733.891411</v>
       </c>
       <c r="AC244">
-        <v>3022158149.951582</v>
+        <v>3026204713.977425</v>
+      </c>
+      <c r="AD244">
+        <v>3046519992.1568503</v>
+      </c>
+      <c r="AE244">
+        <v>3084006318.2485366</v>
       </c>
       <c r="AF244">
-        <v>8295490589.030577</v>
+        <v>8307630281.108107</v>
       </c>
       <c r="AG244">
-        <v>8891890194.96078</v>
+        <v>8904029887.03831</v>
       </c>
       <c r="AH244">
-        <v>9382112581.393244</v>
+        <v>9394252273.470774</v>
+      </c>
+      <c r="AI244">
+        <v>9156731024.382812</v>
       </c>
       <c r="AJ244">
-        <v>2491648575.739646</v>
+        <v>2495657830.6785383</v>
       </c>
       <c r="AK244">
-        <v>2125966869.1558728</v>
+        <v>2129976124.0947652</v>
       </c>
       <c r="AL244">
-        <v>2764190647.6663446</v>
+        <v>2768199902.605237</v>
       </c>
       <c r="AM244">
-        <v>2464622278.948573</v>
+        <v>2468631533.8874655</v>
       </c>
       <c r="AN244">
-        <v>2468500368.86206</v>
+        <v>2472509623.8009524</v>
       </c>
       <c r="AO244">
-        <v>2424647824.2448673</v>
+        <v>2428657079.1837597</v>
       </c>
       <c r="AP244">
-        <v>2275709214.474117</v>
+        <v>2279718469.413009</v>
       </c>
       <c r="AQ244">
-        <v>2015314198.3134935</v>
+        <v>2019323453.2523859</v>
       </c>
       <c r="AR244">
-        <v>2846661480.9164248</v>
+        <v>2850670735.855317</v>
       </c>
       <c r="AS244">
-        <v>2522500834.6312118</v>
+        <v>2526510089.570104</v>
+      </c>
+      <c r="AT244">
+        <v>2719682884.31205</v>
+      </c>
+      <c r="AU244">
+        <v>2274316656.346416</v>
       </c>
       <c r="AV244">
-        <v>7381806092.561864</v>
+        <v>7393833857.378541</v>
       </c>
       <c r="AW244">
-        <v>7357770472.0555</v>
+        <v>7369798236.872177</v>
       </c>
       <c r="AX244">
-        <v>7137684893.704035</v>
+        <v>7149712658.520712</v>
+      </c>
+      <c r="AY244">
+        <v>7520509630.228571</v>
       </c>
     </row>
     <row r="245" spans="1:51" x14ac:dyDescent="0.25">
@@ -38166,121 +38598,148 @@
         <v>84</v>
       </c>
       <c r="D245">
-        <v>4872234156.02383</v>
+        <v>4889762325.417135</v>
       </c>
       <c r="E245">
-        <v>3586134737.2600117</v>
+        <v>3603662906.6533165</v>
       </c>
       <c r="F245">
-        <v>3748012084.3502903</v>
+        <v>3765540253.743595</v>
       </c>
       <c r="G245">
-        <v>3516250104.9441586</v>
+        <v>3533778274.3374634</v>
       </c>
       <c r="H245">
-        <v>3977924025.4678574</v>
+        <v>3995452194.861162</v>
       </c>
       <c r="I245">
-        <v>4540434826.787348</v>
+        <v>4557962996.180653</v>
       </c>
       <c r="J245">
-        <v>5232155995.9671955</v>
+        <v>5249684165.3605</v>
       </c>
       <c r="K245">
-        <v>5675541164.352825</v>
+        <v>5693069333.74613</v>
       </c>
       <c r="L245">
-        <v>3774208121.9515247</v>
+        <v>3791736291.3448296</v>
       </c>
       <c r="M245">
-        <v>4544975675.496174</v>
+        <v>4562503844.889479</v>
+      </c>
+      <c r="N245">
+        <v>4532904686.705126</v>
+      </c>
+      <c r="O245">
+        <v>5445797150.760639</v>
       </c>
       <c r="P245">
-        <v>12206380977.634132</v>
+        <v>12258965485.814047</v>
       </c>
       <c r="Q245">
-        <v>12034608957.199364</v>
+        <v>12087193465.379278</v>
       </c>
       <c r="R245">
-        <v>14681905282.271545</v>
+        <v>14734489790.45146</v>
+      </c>
+      <c r="S245">
+        <v>14541205682.355244</v>
       </c>
       <c r="T245">
-        <v>12703167879.791386</v>
+        <v>12734809313.478243</v>
       </c>
       <c r="U245">
-        <v>12532158401.08345</v>
+        <v>12563799834.770308</v>
       </c>
       <c r="V245">
-        <v>13156568340.546034</v>
+        <v>13188209774.232891</v>
       </c>
       <c r="W245">
-        <v>13346444883.482204</v>
+        <v>13378086317.169062</v>
       </c>
       <c r="X245">
-        <v>14014883580.02143</v>
+        <v>14046525013.708286</v>
       </c>
       <c r="Y245">
-        <v>14729116650.649223</v>
+        <v>14760758084.33608</v>
       </c>
       <c r="Z245">
-        <v>15281461572.982973</v>
+        <v>15313103006.66983</v>
       </c>
       <c r="AA245">
-        <v>15882960605.652168</v>
+        <v>15914602039.339025</v>
       </c>
       <c r="AB245">
-        <v>14863026360.582893</v>
+        <v>14894667794.26975</v>
       </c>
       <c r="AC245">
-        <v>16119719135.971172</v>
+        <v>16151360569.65803</v>
+      </c>
+      <c r="AD245">
+        <v>15619970281.902542</v>
+      </c>
+      <c r="AE245">
+        <v>16053261004.46598</v>
       </c>
       <c r="AF245">
-        <v>38391894621.42087</v>
+        <v>38486818922.481445</v>
       </c>
       <c r="AG245">
-        <v>42090445114.152855</v>
+        <v>42185369415.21343</v>
       </c>
       <c r="AH245">
-        <v>46027448539.21803</v>
+        <v>46122372840.27861</v>
+      </c>
+      <c r="AI245">
+        <v>47824591856.02655</v>
       </c>
       <c r="AJ245">
-        <v>7830933723.767555</v>
+        <v>7845046988.061108</v>
       </c>
       <c r="AK245">
-        <v>8946023663.823439</v>
+        <v>8960136928.116991</v>
       </c>
       <c r="AL245">
-        <v>9408556256.195744</v>
+        <v>9422669520.489296</v>
       </c>
       <c r="AM245">
-        <v>9830194778.538046</v>
+        <v>9844308042.831598</v>
       </c>
       <c r="AN245">
-        <v>10036959554.553572</v>
+        <v>10051072818.847124</v>
       </c>
       <c r="AO245">
-        <v>10188681823.861876</v>
+        <v>10202795088.155428</v>
       </c>
       <c r="AP245">
-        <v>10049305577.015778</v>
+        <v>10063418841.30933</v>
       </c>
       <c r="AQ245">
-        <v>10207419441.299343</v>
+        <v>10221532705.592896</v>
       </c>
       <c r="AR245">
-        <v>11088818238.631369</v>
+        <v>11102931502.924921</v>
       </c>
       <c r="AS245">
-        <v>11574743460.474998</v>
+        <v>11588856724.76855</v>
+      </c>
+      <c r="AT245">
+        <v>11087065595.197416</v>
+      </c>
+      <c r="AU245">
+        <v>10607463853.705341</v>
       </c>
       <c r="AV245">
-        <v>26185513643.786736</v>
+        <v>26227853436.667397</v>
       </c>
       <c r="AW245">
-        <v>30055836156.95349</v>
+        <v>30098175949.834152</v>
       </c>
       <c r="AX245">
-        <v>31345543256.946487</v>
+        <v>31387883049.82715</v>
+      </c>
+      <c r="AY245">
+        <v>33283386173.671307</v>
       </c>
     </row>
     <row r="246" spans="1:51" x14ac:dyDescent="0.25">
@@ -38294,121 +38753,148 @@
         <v>92</v>
       </c>
       <c r="D246">
-        <v>-2254957206.1286345</v>
+        <v>-2268348903.316055</v>
       </c>
       <c r="E246">
-        <v>-2612684528.0106287</v>
+        <v>-2626076225.198049</v>
       </c>
       <c r="F246">
-        <v>-2615839528.1234994</v>
+        <v>-2629231225.31092</v>
       </c>
       <c r="G246">
-        <v>-3173003820.050239</v>
+        <v>-3186395517.2376595</v>
       </c>
       <c r="H246">
-        <v>-3264520567.956704</v>
+        <v>-3277912265.1441245</v>
       </c>
       <c r="I246">
-        <v>-3305020157.335527</v>
+        <v>-3318411854.5229473</v>
       </c>
       <c r="J246">
-        <v>-3395370248.640902</v>
+        <v>-3408761945.8283224</v>
       </c>
       <c r="K246">
-        <v>-3564038603.8304276</v>
+        <v>-3577430301.017848</v>
       </c>
       <c r="L246">
-        <v>-3776140097.566254</v>
+        <v>-3789531794.7536745</v>
       </c>
       <c r="M246">
-        <v>-4322008585.093283</v>
+        <v>-4335400282.280703</v>
+      </c>
+      <c r="N246">
+        <v>-3970177014.712494</v>
+      </c>
+      <c r="O246">
+        <v>-3805744631.677196</v>
       </c>
       <c r="P246">
-        <v>-7483481262.262762</v>
+        <v>-7523656353.825024</v>
       </c>
       <c r="Q246">
-        <v>-9742544545.34247</v>
+        <v>-9782719636.904732</v>
       </c>
       <c r="R246">
-        <v>-10735548950.037584</v>
+        <v>-10775724041.599846</v>
+      </c>
+      <c r="S246">
+        <v>-12111321928.670393</v>
       </c>
       <c r="T246">
-        <v>3227608122.771825</v>
+        <v>3234501279.262016</v>
       </c>
       <c r="U246">
-        <v>2475899092.541767</v>
+        <v>2482792249.031958</v>
       </c>
       <c r="V246">
-        <v>3189595924.7362094</v>
+        <v>3196489081.2264004</v>
       </c>
       <c r="W246">
-        <v>3153313096.7858233</v>
+        <v>3160206253.2760143</v>
       </c>
       <c r="X246">
-        <v>3137367774.9459734</v>
+        <v>3144260931.4361644</v>
       </c>
       <c r="Y246">
-        <v>3164505342.9460006</v>
+        <v>3171398499.4361916</v>
       </c>
       <c r="Z246">
-        <v>3136016128.249308</v>
+        <v>3142909284.739499</v>
       </c>
       <c r="AA246">
-        <v>3047971872.9785132</v>
+        <v>3054865029.468704</v>
       </c>
       <c r="AB246">
-        <v>2934300593.0436673</v>
+        <v>2941193749.5338583</v>
       </c>
       <c r="AC246">
-        <v>3161080579.524074</v>
+        <v>3167973736.014265</v>
+      </c>
+      <c r="AD246">
+        <v>2880491225.6158676</v>
+      </c>
+      <c r="AE246">
+        <v>3367054156.959063</v>
       </c>
       <c r="AF246">
-        <v>8893103140.0498</v>
+        <v>8913782609.520374</v>
       </c>
       <c r="AG246">
-        <v>9455186214.677797</v>
+        <v>9475865684.14837</v>
       </c>
       <c r="AH246">
-        <v>9118288594.271488</v>
+        <v>9138968063.742062</v>
+      </c>
+      <c r="AI246">
+        <v>9415519118.589195</v>
       </c>
       <c r="AJ246">
-        <v>5482565328.900459</v>
+        <v>5502850182.578071</v>
       </c>
       <c r="AK246">
-        <v>5088583620.552396</v>
+        <v>5108868474.230007</v>
       </c>
       <c r="AL246">
-        <v>5805435452.859709</v>
+        <v>5825720306.53732</v>
       </c>
       <c r="AM246">
-        <v>6326316916.836062</v>
+        <v>6346601770.513674</v>
       </c>
       <c r="AN246">
-        <v>6401888342.902678</v>
+        <v>6422173196.580289</v>
       </c>
       <c r="AO246">
-        <v>6469525500.2815275</v>
+        <v>6489810353.959139</v>
       </c>
       <c r="AP246">
-        <v>6531386376.89021</v>
+        <v>6551671230.5678215</v>
       </c>
       <c r="AQ246">
-        <v>6612010476.808941</v>
+        <v>6632295330.486552</v>
       </c>
       <c r="AR246">
-        <v>6710440690.609921</v>
+        <v>6730725544.287533</v>
       </c>
       <c r="AS246">
-        <v>7483089164.617356</v>
+        <v>7503374018.294968</v>
+      </c>
+      <c r="AT246">
+        <v>6850668240.3283615</v>
+      </c>
+      <c r="AU246">
+        <v>7172798788.636259</v>
       </c>
       <c r="AV246">
-        <v>16376584402.312563</v>
+        <v>16437438963.345398</v>
       </c>
       <c r="AW246">
-        <v>19197730760.020267</v>
+        <v>19258585321.0531</v>
       </c>
       <c r="AX246">
-        <v>19853837544.30907</v>
+        <v>19914692105.341908</v>
+      </c>
+      <c r="AY246">
+        <v>21526841047.25959</v>
       </c>
     </row>
     <row r="247" spans="1:51" x14ac:dyDescent="0.25">
@@ -38422,121 +38908,528 @@
         <v>86</v>
       </c>
       <c r="D247">
-        <v>332173303.7398672</v>
+        <v>315434218.73945236</v>
       </c>
       <c r="E247">
-        <v>194278735.36866093</v>
+        <v>177539650.36824608</v>
       </c>
       <c r="F247">
-        <v>221029443.82558537</v>
+        <v>204290358.82517052</v>
       </c>
       <c r="G247">
-        <v>567248609.2530775</v>
+        <v>550509524.2526627</v>
       </c>
       <c r="H247">
-        <v>967728244.2050695</v>
+        <v>950989159.2046547</v>
       </c>
       <c r="I247">
-        <v>-13111537.709228516</v>
+        <v>-29850622.709643364</v>
       </c>
       <c r="J247">
-        <v>296833384.13414097</v>
+        <v>280094299.1337261</v>
       </c>
       <c r="K247">
-        <v>802673236.9483156</v>
+        <v>785934151.9479008</v>
       </c>
       <c r="L247">
-        <v>-125525240.70962906</v>
+        <v>-142264325.7100439</v>
       </c>
       <c r="M247">
-        <v>1009837754.3076935</v>
+        <v>993098669.3072786</v>
+      </c>
+      <c r="N247">
+        <v>440191147.917655</v>
+      </c>
+      <c r="O247">
+        <v>568317348.7229519</v>
       </c>
       <c r="P247">
-        <v>747481482.9341135</v>
+        <v>697264227.932869</v>
       </c>
       <c r="Q247">
-        <v>1521865315.7489185</v>
+        <v>1471648060.747674</v>
       </c>
       <c r="R247">
-        <v>973981380.3728275</v>
+        <v>923764125.371583</v>
+      </c>
+      <c r="S247">
+        <v>2001607165.9478855</v>
       </c>
       <c r="T247">
-        <v>4853216874.607993</v>
+        <v>4842434166.415649</v>
       </c>
       <c r="U247">
-        <v>4390735323.136654</v>
+        <v>4379952614.94431</v>
       </c>
       <c r="V247">
-        <v>4912373559.858311</v>
+        <v>4901590851.665967</v>
       </c>
       <c r="W247">
-        <v>5027105182.187234</v>
+        <v>5016322473.99489</v>
       </c>
       <c r="X247">
-        <v>5789427971.960664</v>
+        <v>5778645263.76832</v>
       </c>
       <c r="Y247">
-        <v>5272490413.077329</v>
+        <v>5261707704.884985</v>
       </c>
       <c r="Z247">
-        <v>5016112637.708502</v>
+        <v>5005329929.516158</v>
       </c>
       <c r="AA247">
-        <v>5666025547.335024</v>
+        <v>5655242839.14268</v>
       </c>
       <c r="AB247">
-        <v>4682305205.910112</v>
+        <v>4671522497.717769</v>
       </c>
       <c r="AC247">
-        <v>5328296372.870718</v>
+        <v>5317513664.678374</v>
+      </c>
+      <c r="AD247">
+        <v>5182036930.538444</v>
+      </c>
+      <c r="AE247">
+        <v>5450710725.732454</v>
       </c>
       <c r="AF247">
-        <v>14156325757.602959</v>
+        <v>14123977633.025925</v>
       </c>
       <c r="AG247">
-        <v>16089023567.225227</v>
+        <v>16056675442.648195</v>
       </c>
       <c r="AH247">
-        <v>15364443390.953638</v>
+        <v>15332095266.376606</v>
+      </c>
+      <c r="AI247">
+        <v>15950261320.949272</v>
       </c>
       <c r="AJ247">
-        <v>4521043570.868126</v>
+        <v>4526999947.676197</v>
       </c>
       <c r="AK247">
-        <v>4196456587.767993</v>
+        <v>4202412964.576064</v>
       </c>
       <c r="AL247">
-        <v>4691344116.032725</v>
+        <v>4697300492.840796</v>
       </c>
       <c r="AM247">
-        <v>4459856572.934156</v>
+        <v>4465812949.742228</v>
       </c>
       <c r="AN247">
-        <v>4821699727.755594</v>
+        <v>4827656104.563665</v>
       </c>
       <c r="AO247">
-        <v>5285601950.786557</v>
+        <v>5291558327.594628</v>
       </c>
       <c r="AP247">
-        <v>4719279253.574361</v>
+        <v>4725235630.382432</v>
       </c>
       <c r="AQ247">
-        <v>4863352310.386708</v>
+        <v>4869308687.194779</v>
       </c>
       <c r="AR247">
-        <v>4807830446.619741</v>
+        <v>4813786823.427813</v>
       </c>
       <c r="AS247">
-        <v>4318458618.5630245</v>
+        <v>4324414995.371096</v>
+      </c>
+      <c r="AT247">
+        <v>4741845782.620789</v>
+      </c>
+      <c r="AU247">
+        <v>4882393377.009502</v>
       </c>
       <c r="AV247">
-        <v>13408844274.668846</v>
+        <v>13426713405.09306</v>
       </c>
       <c r="AW247">
-        <v>14567158251.476307</v>
+        <v>14585027381.90052</v>
       </c>
       <c r="AX247">
-        <v>14390462010.58081</v>
+        <v>14408331141.005024</v>
+      </c>
+      <c r="AY247">
+        <v>13948654155.001387</v>
+      </c>
+    </row>
+    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2022</v>
+      </c>
+      <c r="B248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C248" t="s">
+        <v>52</v>
+      </c>
+      <c r="D248">
+        <v>-28241210404.836876</v>
+      </c>
+      <c r="T248">
+        <v>46605561083.2761</v>
+      </c>
+      <c r="AJ248">
+        <v>74846771488.11298</v>
+      </c>
+    </row>
+    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2022</v>
+      </c>
+      <c r="B249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C249" t="s">
+        <v>54</v>
+      </c>
+      <c r="D249">
+        <v>1104520250.1690712</v>
+      </c>
+      <c r="T249">
+        <v>3999999162.153935</v>
+      </c>
+      <c r="AJ249">
+        <v>2895478911.9848638</v>
+      </c>
+    </row>
+    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2022</v>
+      </c>
+      <c r="B250" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" t="s">
+        <v>56</v>
+      </c>
+      <c r="D250">
+        <v>1061585525.9176054</v>
+      </c>
+      <c r="T250">
+        <v>3908499544.769113</v>
+      </c>
+      <c r="AJ250">
+        <v>2846914018.8515077</v>
+      </c>
+    </row>
+    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2022</v>
+      </c>
+      <c r="B251" t="s">
+        <v>57</v>
+      </c>
+      <c r="C251" t="s">
+        <v>58</v>
+      </c>
+      <c r="D251">
+        <v>-6824475099.201164</v>
+      </c>
+      <c r="T251">
+        <v>27659136067.654236</v>
+      </c>
+      <c r="AJ251">
+        <v>34483611166.8554</v>
+      </c>
+    </row>
+    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2022</v>
+      </c>
+      <c r="B252" t="s">
+        <v>59</v>
+      </c>
+      <c r="C252" t="s">
+        <v>60</v>
+      </c>
+      <c r="D252">
+        <v>-33294525138.938965</v>
+      </c>
+      <c r="T252">
+        <v>12764657710.512802</v>
+      </c>
+      <c r="AJ252">
+        <v>46059182849.45177</v>
+      </c>
+    </row>
+    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2022</v>
+      </c>
+      <c r="B253" t="s">
+        <v>61</v>
+      </c>
+      <c r="C253" t="s">
+        <v>62</v>
+      </c>
+      <c r="D253">
+        <v>-18021833052.627472</v>
+      </c>
+      <c r="T253">
+        <v>25113783750.09977</v>
+      </c>
+      <c r="AJ253">
+        <v>43135616802.72724</v>
+      </c>
+    </row>
+    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2022</v>
+      </c>
+      <c r="B254" t="s">
+        <v>63</v>
+      </c>
+      <c r="C254" t="s">
+        <v>64</v>
+      </c>
+      <c r="D254">
+        <v>-801176076.2590113</v>
+      </c>
+      <c r="T254">
+        <v>3634116349.6533384</v>
+      </c>
+      <c r="AJ254">
+        <v>4435292425.91235</v>
+      </c>
+    </row>
+    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2022</v>
+      </c>
+      <c r="B255" t="s">
+        <v>65</v>
+      </c>
+      <c r="C255" t="s">
+        <v>66</v>
+      </c>
+      <c r="D255">
+        <v>-5378345597.330938</v>
+      </c>
+      <c r="T255">
+        <v>5760940745.238953</v>
+      </c>
+      <c r="AJ255">
+        <v>11139286342.569891</v>
+      </c>
+    </row>
+    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2022</v>
+      </c>
+      <c r="B256" t="s">
+        <v>87</v>
+      </c>
+      <c r="C256" t="s">
+        <v>88</v>
+      </c>
+      <c r="D256">
+        <v>1993327823.3052843</v>
+      </c>
+      <c r="T256">
+        <v>2354879138.629404</v>
+      </c>
+      <c r="AJ256">
+        <v>361551315.32411987</v>
+      </c>
+    </row>
+    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2022</v>
+      </c>
+      <c r="B257" t="s">
+        <v>67</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257">
+        <v>-2393674885.832427</v>
+      </c>
+      <c r="T257">
+        <v>4272389293.0754147</v>
+      </c>
+      <c r="AJ257">
+        <v>6666064178.907842</v>
+      </c>
+    </row>
+    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2022</v>
+      </c>
+      <c r="B258" t="s">
+        <v>69</v>
+      </c>
+      <c r="C258" t="s">
+        <v>70</v>
+      </c>
+      <c r="D258">
+        <v>-3155683880.7765226</v>
+      </c>
+      <c r="T258">
+        <v>2239868514.1197653</v>
+      </c>
+      <c r="AJ258">
+        <v>5395552394.896288</v>
+      </c>
+    </row>
+    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2022</v>
+      </c>
+      <c r="B259" t="s">
+        <v>71</v>
+      </c>
+      <c r="C259" t="s">
+        <v>72</v>
+      </c>
+      <c r="D259">
+        <v>-7148559651.878104</v>
+      </c>
+      <c r="T259">
+        <v>6249492612.509923</v>
+      </c>
+      <c r="AJ259">
+        <v>13398052264.388027</v>
+      </c>
+    </row>
+    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2022</v>
+      </c>
+      <c r="B260" t="s">
+        <v>73</v>
+      </c>
+      <c r="C260" t="s">
+        <v>74</v>
+      </c>
+      <c r="D260">
+        <v>-2953049251.8592453</v>
+      </c>
+      <c r="T260">
+        <v>5783739697.835691</v>
+      </c>
+      <c r="AJ260">
+        <v>8736788949.694937</v>
+      </c>
+    </row>
+    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2022</v>
+      </c>
+      <c r="B261" t="s">
+        <v>75</v>
+      </c>
+      <c r="C261" t="s">
+        <v>76</v>
+      </c>
+      <c r="D261">
+        <v>-12474782179.40356</v>
+      </c>
+      <c r="T261">
+        <v>24927421101.57391</v>
+      </c>
+      <c r="AJ261">
+        <v>37402203280.97747</v>
+      </c>
+    </row>
+    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2022</v>
+      </c>
+      <c r="B262" t="s">
+        <v>81</v>
+      </c>
+      <c r="C262" t="s">
+        <v>82</v>
+      </c>
+      <c r="D262">
+        <v>-836107552.2577287</v>
+      </c>
+      <c r="T262">
+        <v>861536400.2895094</v>
+      </c>
+      <c r="AJ262">
+        <v>1697643952.547238</v>
+      </c>
+    </row>
+    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2022</v>
+      </c>
+      <c r="B263" t="s">
+        <v>89</v>
+      </c>
+      <c r="C263" t="s">
+        <v>90</v>
+      </c>
+      <c r="D263">
+        <v>1262341683.9504538</v>
+      </c>
+      <c r="T263">
+        <v>3863931215.994757</v>
+      </c>
+      <c r="AJ263">
+        <v>2601589532.0443034</v>
+      </c>
+    </row>
+    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2022</v>
+      </c>
+      <c r="B264" t="s">
+        <v>83</v>
+      </c>
+      <c r="C264" t="s">
+        <v>84</v>
+      </c>
+      <c r="D264">
+        <v>4405801712.8566475</v>
+      </c>
+      <c r="T264">
+        <v>16620678137.535402</v>
+      </c>
+      <c r="AJ264">
+        <v>12214876424.678755</v>
+      </c>
+    </row>
+    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2022</v>
+      </c>
+      <c r="B265" t="s">
+        <v>91</v>
+      </c>
+      <c r="C265" t="s">
+        <v>92</v>
+      </c>
+      <c r="D265">
+        <v>-3931741047.997678</v>
+      </c>
+      <c r="T265">
+        <v>3128467640.898031</v>
+      </c>
+      <c r="AJ265">
+        <v>7060208688.895709</v>
+      </c>
+    </row>
+    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2022</v>
+      </c>
+      <c r="B266" t="s">
+        <v>85</v>
+      </c>
+      <c r="C266" t="s">
+        <v>86</v>
+      </c>
+      <c r="D266">
+        <v>1047288381.9423265</v>
+      </c>
+      <c r="T266">
+        <v>5650655395.624707</v>
+      </c>
+      <c r="AJ266">
+        <v>4603367013.682381</v>
       </c>
     </row>
   </sheetData>

--- a/data/BOC/FTD/FTDE/ctyseasonal.xlsx
+++ b/data/BOC/FTD/FTDE/ctyseasonal.xlsx
@@ -39065,11 +39065,20 @@
       <c r="D248">
         <v>-28241210404.836876</v>
       </c>
+      <c r="E248">
+        <v>-28977346103.08941</v>
+      </c>
       <c r="T248">
         <v>46605561083.2761</v>
       </c>
+      <c r="U248">
+        <v>48083738835.60403</v>
+      </c>
       <c r="AJ248">
         <v>74846771488.11298</v>
+      </c>
+      <c r="AK248">
+        <v>77061084938.69344</v>
       </c>
     </row>
     <row r="249" spans="1:51" x14ac:dyDescent="0.25">
@@ -39085,11 +39094,20 @@
       <c r="D249">
         <v>1104520250.1690712</v>
       </c>
+      <c r="E249">
+        <v>1208616491.9061794</v>
+      </c>
       <c r="T249">
         <v>3999999162.153935</v>
       </c>
+      <c r="U249">
+        <v>3973369039.5355377</v>
+      </c>
       <c r="AJ249">
         <v>2895478911.9848638</v>
+      </c>
+      <c r="AK249">
+        <v>2764752547.6293583</v>
       </c>
     </row>
     <row r="250" spans="1:51" x14ac:dyDescent="0.25">
@@ -39105,11 +39123,20 @@
       <c r="D250">
         <v>1061585525.9176054</v>
       </c>
+      <c r="E250">
+        <v>1019806752.4458632</v>
+      </c>
       <c r="T250">
         <v>3908499544.769113</v>
       </c>
+      <c r="U250">
+        <v>3667834913.5712123</v>
+      </c>
       <c r="AJ250">
         <v>2846914018.8515077</v>
+      </c>
+      <c r="AK250">
+        <v>2648028161.125349</v>
       </c>
     </row>
     <row r="251" spans="1:51" x14ac:dyDescent="0.25">
@@ -39123,13 +39150,22 @@
         <v>58</v>
       </c>
       <c r="D251">
-        <v>-6824475099.201164</v>
+        <v>-6880511255.648861</v>
+      </c>
+      <c r="E251">
+        <v>-6847953335.008358</v>
       </c>
       <c r="T251">
-        <v>27659136067.654236</v>
+        <v>27603099911.20654</v>
+      </c>
+      <c r="U251">
+        <v>27079310674.22233</v>
       </c>
       <c r="AJ251">
         <v>34483611166.8554</v>
+      </c>
+      <c r="AK251">
+        <v>33927264009.230686</v>
       </c>
     </row>
     <row r="252" spans="1:51" x14ac:dyDescent="0.25">
@@ -39145,11 +39181,20 @@
       <c r="D252">
         <v>-33294525138.938965</v>
       </c>
+      <c r="E252">
+        <v>-41207855184.2277</v>
+      </c>
       <c r="T252">
         <v>12764657710.512802</v>
       </c>
+      <c r="U252">
+        <v>12975459336.654984</v>
+      </c>
       <c r="AJ252">
         <v>46059182849.45177</v>
+      </c>
+      <c r="AK252">
+        <v>54183314520.88268</v>
       </c>
     </row>
     <row r="253" spans="1:51" x14ac:dyDescent="0.25">
@@ -39165,11 +39210,20 @@
       <c r="D253">
         <v>-18021833052.627472</v>
       </c>
+      <c r="E253">
+        <v>-16950702307.491142</v>
+      </c>
       <c r="T253">
         <v>25113783750.09977</v>
       </c>
+      <c r="U253">
+        <v>26217436142.703773</v>
+      </c>
       <c r="AJ253">
         <v>43135616802.72724</v>
+      </c>
+      <c r="AK253">
+        <v>43168138450.194916</v>
       </c>
     </row>
     <row r="254" spans="1:51" x14ac:dyDescent="0.25">
@@ -39185,11 +39239,20 @@
       <c r="D254">
         <v>-801176076.2590113</v>
       </c>
+      <c r="E254">
+        <v>-950275137.1490302</v>
+      </c>
       <c r="T254">
         <v>3634116349.6533384</v>
       </c>
+      <c r="U254">
+        <v>3424427146.358828</v>
+      </c>
       <c r="AJ254">
         <v>4435292425.91235</v>
+      </c>
+      <c r="AK254">
+        <v>4374702283.507858</v>
       </c>
     </row>
     <row r="255" spans="1:51" x14ac:dyDescent="0.25">
@@ -39205,11 +39268,20 @@
       <c r="D255">
         <v>-5378345597.330938</v>
       </c>
+      <c r="E255">
+        <v>-5368383455.221161</v>
+      </c>
       <c r="T255">
         <v>5760940745.238953</v>
       </c>
+      <c r="U255">
+        <v>5423293536.538788</v>
+      </c>
       <c r="AJ255">
         <v>11139286342.569891</v>
+      </c>
+      <c r="AK255">
+        <v>10791676991.759949</v>
       </c>
     </row>
     <row r="256" spans="1:51" x14ac:dyDescent="0.25">
@@ -39225,11 +39297,20 @@
       <c r="D256">
         <v>1993327823.3052843</v>
       </c>
+      <c r="E256">
+        <v>1360451646.7177649</v>
+      </c>
       <c r="T256">
         <v>2354879138.629404</v>
       </c>
+      <c r="U256">
+        <v>1927333258.251038</v>
+      </c>
       <c r="AJ256">
         <v>361551315.32411987</v>
+      </c>
+      <c r="AK256">
+        <v>566881611.5332733</v>
       </c>
     </row>
     <row r="257" spans="1:51" x14ac:dyDescent="0.25">
@@ -39245,11 +39326,20 @@
       <c r="D257">
         <v>-2393674885.832427</v>
       </c>
+      <c r="E257">
+        <v>-2223320689.933593</v>
+      </c>
       <c r="T257">
         <v>4272389293.0754147</v>
       </c>
+      <c r="U257">
+        <v>4094418183.2312517</v>
+      </c>
       <c r="AJ257">
         <v>6666064178.907842</v>
+      </c>
+      <c r="AK257">
+        <v>6317738873.1648445</v>
       </c>
     </row>
     <row r="258" spans="1:51" x14ac:dyDescent="0.25">
@@ -39265,11 +39355,20 @@
       <c r="D258">
         <v>-3155683880.7765226</v>
       </c>
+      <c r="E258">
+        <v>-3029435283.4671783</v>
+      </c>
       <c r="T258">
         <v>2239868514.1197653</v>
       </c>
+      <c r="U258">
+        <v>2180981237.4733505</v>
+      </c>
       <c r="AJ258">
         <v>5395552394.896288</v>
+      </c>
+      <c r="AK258">
+        <v>5210416520.940529</v>
       </c>
     </row>
     <row r="259" spans="1:51" x14ac:dyDescent="0.25">
@@ -39285,11 +39384,20 @@
       <c r="D259">
         <v>-7148559651.878104</v>
       </c>
+      <c r="E259">
+        <v>-5119232373.121945</v>
+      </c>
       <c r="T259">
         <v>6249492612.509923</v>
       </c>
+      <c r="U259">
+        <v>7131641820.932029</v>
+      </c>
       <c r="AJ259">
         <v>13398052264.388027</v>
+      </c>
+      <c r="AK259">
+        <v>12250874194.053974</v>
       </c>
     </row>
     <row r="260" spans="1:51" x14ac:dyDescent="0.25">
@@ -39305,11 +39413,20 @@
       <c r="D260">
         <v>-2953049251.8592453</v>
       </c>
+      <c r="E260">
+        <v>-4098396990.9221373</v>
+      </c>
       <c r="T260">
         <v>5783739697.835691</v>
       </c>
+      <c r="U260">
+        <v>5315351781.450181</v>
+      </c>
       <c r="AJ260">
         <v>8736788949.694937</v>
+      </c>
+      <c r="AK260">
+        <v>9413748772.372318</v>
       </c>
     </row>
     <row r="261" spans="1:51" x14ac:dyDescent="0.25">
@@ -39325,11 +39442,20 @@
       <c r="D261">
         <v>-12474782179.40356</v>
       </c>
+      <c r="E261">
+        <v>-9818959294.533493</v>
+      </c>
       <c r="T261">
         <v>24927421101.57391</v>
       </c>
+      <c r="U261">
+        <v>25486392011.248695</v>
+      </c>
       <c r="AJ261">
         <v>37402203280.97747</v>
+      </c>
+      <c r="AK261">
+        <v>35305351305.78219</v>
       </c>
     </row>
     <row r="262" spans="1:51" x14ac:dyDescent="0.25">
@@ -39345,11 +39471,20 @@
       <c r="D262">
         <v>-836107552.2577287</v>
       </c>
+      <c r="E262">
+        <v>-950429369.4774092</v>
+      </c>
       <c r="T262">
         <v>861536400.2895094</v>
       </c>
+      <c r="U262">
+        <v>830960383.1369406</v>
+      </c>
       <c r="AJ262">
         <v>1697643952.547238</v>
+      </c>
+      <c r="AK262">
+        <v>1781389752.6143498</v>
       </c>
     </row>
     <row r="263" spans="1:51" x14ac:dyDescent="0.25">
@@ -39365,11 +39500,20 @@
       <c r="D263">
         <v>1262341683.9504538</v>
       </c>
+      <c r="E263">
+        <v>1220017216.6726484</v>
+      </c>
       <c r="T263">
         <v>3863931215.994757</v>
       </c>
+      <c r="U263">
+        <v>3475659477.6725006</v>
+      </c>
       <c r="AJ263">
         <v>2601589532.0443034</v>
+      </c>
+      <c r="AK263">
+        <v>2255642260.999852</v>
       </c>
     </row>
     <row r="264" spans="1:51" x14ac:dyDescent="0.25">
@@ -39385,11 +39529,20 @@
       <c r="D264">
         <v>4405801712.8566475</v>
       </c>
+      <c r="E264">
+        <v>5749229867.229385</v>
+      </c>
       <c r="T264">
         <v>16620678137.535402</v>
       </c>
+      <c r="U264">
+        <v>17056977193.670403</v>
+      </c>
       <c r="AJ264">
         <v>12214876424.678755</v>
+      </c>
+      <c r="AK264">
+        <v>11307747326.441017</v>
       </c>
     </row>
     <row r="265" spans="1:51" x14ac:dyDescent="0.25">
@@ -39405,11 +39558,20 @@
       <c r="D265">
         <v>-3931741047.997678</v>
       </c>
+      <c r="E265">
+        <v>-4218283711.831724</v>
+      </c>
       <c r="T265">
         <v>3128467640.898031</v>
       </c>
+      <c r="U265">
+        <v>3543820326.6966877</v>
+      </c>
       <c r="AJ265">
         <v>7060208688.895709</v>
+      </c>
+      <c r="AK265">
+        <v>7762104038.528412</v>
       </c>
     </row>
     <row r="266" spans="1:51" x14ac:dyDescent="0.25">
@@ -39425,11 +39587,20 @@
       <c r="D266">
         <v>1047288381.9423265</v>
       </c>
+      <c r="E266">
+        <v>928302166.0825481</v>
+      </c>
       <c r="T266">
         <v>5650655395.624707</v>
       </c>
+      <c r="U266">
+        <v>5312906596.058622</v>
+      </c>
       <c r="AJ266">
         <v>4603367013.682381</v>
+      </c>
+      <c r="AK266">
+        <v>4384604429.976074</v>
       </c>
     </row>
   </sheetData>
